--- a/Warehouse Manager/Database/Components.xlsx
+++ b/Warehouse Manager/Database/Components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\Warehouse Manager\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4BB6A5-73BA-4C72-BC64-BD3579476D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E2A63-25F5-4009-993B-A371223A844E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Loading</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 32}, {'Name': 'Lipstick', 'Quantity': 32}, {'Name': 'Wireless Headphones', 'Quantity': 30}, {'Name': 'Bluetooth Speaker', 'Quantity': 31}]</t>
+    <t>[{'Name': 'Screwdriver Set', 'Quantity': 22}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}, {'Name': 'Utility Knife', 'Quantity': 25}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Wireless Mouse', 'Quantity': 64}, {'Name': 'Moisturizing Cream', 'Quantity': 64}, {'Name': 'Facial Cleanser', 'Quantity': 64}, {'Name': 'LED Bulb', 'Quantity': 63}]</t>
+    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}, {'Name': 'Level', 'Quantity': 33}, {'Name': 'Screwdriver Set', 'Quantity': 28}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Mascara', 'Quantity': 549}, {'Name': 'Lipstick', 'Quantity': 274}, {'Name': 'Eyeshadow Palette', 'Quantity': 274}]</t>
+    <t>[{'Name': 'Hammer', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Wireless Headphones', 'Quantity': 18}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Screwdriver Set', 'Quantity': 22}, {'Name': 'Measuring Tape', 'Quantity': 21}, {'Name': 'Level', 'Quantity': 27}]</t>
+    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 18}, {'Name': 'Essential Oil Set', 'Quantity': 18}, {'Name': 'Moisturizing Cream', 'Quantity': 20}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 31}, {'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Lipstick', 'Quantity': 59}]</t>
+    <t>[{'Name': 'LED Bulb', 'Quantity': 20}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 15}, {'Name': 'Measuring Tape', 'Quantity': 14}, {'Name': 'Hammer', 'Quantity': 14}]</t>
+  </si>
+  <si>
+    <t>[{'Name': 'LED Bulb', 'Quantity': 21}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 19}, {'Name': 'Essential Oil Set', 'Quantity': 20}, {'Name': 'Screwdriver Set', 'Quantity': 20}]</t>
   </si>
   <si>
     <t>Free</t>
@@ -97,115 +100,76 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Screwdriver Set', 'Quantity': 22}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 11}]</t>
+    <t>[{'Name': 'Hammer', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 33}, {'Name': 'Screwdriver Set', 'Quantity': 28}, {'Name': 'Screw Assortment Kit', 'Quantity': 28}]</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 368}, {'Name': 'Lipstick', 'Quantity': 367}, {'Name': 'Wireless Headphones', 'Quantity': 5}, {'Name': 'Bluetooth Speaker', 'Quantity': 14}]</t>
+    <t>[{'Name': 'Measuring Tape', 'Quantity': 9}, {'Name': 'Screw Assortment Kit', 'Quantity': 10}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Hammer', 'Quantity': 9}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 27}, {'Name': 'Measuring Tape', 'Quantity': 31}, {'Name': 'Lipstick', 'Quantity': 59}]</t>
+    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 9}, {'Name': 'Wireless Headphones', 'Quantity': 6}, {'Name': 'Blender', 'Quantity': 6}, {'Name': 'Cookware Set', 'Quantity': 3}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Steam Iron', 'Quantity': 4}, {'Name': 'LED Bulb', 'Quantity': 16}, {'Name': 'Floor Lamp', 'Quantity': 4}, {'Name': 'Eyeshadow Palette', 'Quantity': 15}]</t>
+    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 11}, {'Name': 'Wireless Headphones', 'Quantity': 9}, {'Name': 'Cookware Set', 'Quantity': 4}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 8}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Mascara', 'Quantity': 29}, {'Name': 'Eyeshadow Palette', 'Quantity': 29}, {'Name': 'Facial Cleanser', 'Quantity': 29}, {'Name': 'Vacuum Cleaner', 'Quantity': 8}]</t>
+    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 13}, {'Name': 'Wireless Headphones', 'Quantity': 5}, {'Name': 'Cookware Set', 'Quantity': 4}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 10}]</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 47}, {'Name': 'Eyeshadow Palette', 'Quantity': 47}, {'Name': 'Lipstick', 'Quantity': 46}, {'Name': 'Coffee Maker', 'Quantity': 16}]</t>
+    <t>[{'Name': 'Toolbox', 'Quantity': 19}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Sanding Block', 'Quantity': 22}]</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 15}, {'Name': 'Lipstick', 'Quantity': 15}, {'Name': 'Coffee Maker', 'Quantity': 15}, {'Name': 'Wireless Headphones', 'Quantity': 14}]</t>
+    <t>[{'Name': 'Toolbox', 'Quantity': 5}, {'Name': 'Screwdriver Set', 'Quantity': 54}, {'Name': 'Measuring Tape', 'Quantity': 55}, {'Name': 'Screw Assortment Kit', 'Quantity': 54}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Moisturizing Cream', 'Quantity': 29}, {'Name': 'Facial Cleanser', 'Quantity': 28}, {'Name': 'LED Bulb', 'Quantity': 28}, {'Name': 'Floor Lamp', 'Quantity': 8}]</t>
+    <t>[{'Name': 'Measuring Tape', 'Quantity': 23}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Utility Knife', 'Quantity': 22}, {'Name': 'Food Storage Containers', 'Quantity': 20}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Facial Cleanser', 'Quantity': 13}, {'Name': 'LED Bulb', 'Quantity': 13}, {'Name': 'Floor Lamp', 'Quantity': 8}, {'Name': 'Paint Roller Kit', 'Quantity': 12}]</t>
+    <t>[{'Name': 'Measuring Tape', 'Quantity': 13}, {'Name': 'Screw Assortment Kit', 'Quantity': 12}, {'Name': 'Food Storage Containers', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 9}]</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 35}, {'Name': 'Power Drill', 'Quantity': 1}, {'Name': 'Blender', 'Quantity': 24}, {'Name': 'Mascara', 'Quantity': 34}]</t>
+    <t>[{'Name': 'Paint Roller Kit', 'Quantity': 13}, {'Name': 'Floor Lamp', 'Quantity': 7}, {'Name': 'LED Bulb', 'Quantity': 11}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 11}]</t>
   </si>
   <si>
-    <t>[{'Name': 'USB Flash Drive', 'Quantity': 28}, {'Name': 'Moisturizing Cream', 'Quantity': 28}, {'Name': 'Facial Cleanser', 'Quantity': 27}, {'Name': 'Blender', 'Quantity': 23}]</t>
+    <t>[{'Name': 'LED Bulb', 'Quantity': 20}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 16}, {'Name': 'Essential Oil Set', 'Quantity': 18}, {'Name': 'Measuring Tape', 'Quantity': 15}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Mascara', 'Quantity': 18}, {'Name': 'Facial Cleanser', 'Quantity': 18}, {'Name': 'Vacuum Cleaner', 'Quantity': 13}, {'Name': 'HDMI Cable', 'Quantity': 17}]</t>
+    <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 41}, {'Name': 'Essential Oil Set', 'Quantity': 41}, {'Name': 'Moisturizing Cream', 'Quantity': 40}, {'Name': 'Facial Cleanser', 'Quantity': 40}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Steam Iron', 'Quantity': 6}, {'Name': 'LED Bulb', 'Quantity': 23}, {'Name': 'Floor Lamp', 'Quantity': 6}, {'Name': 'Eyeshadow Palette', 'Quantity': 23}]</t>
+    <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 50}, {'Name': 'Facial Cleanser', 'Quantity': 50}, {'Name': 'Mascara', 'Quantity': 50}, {'Name': 'Lipstick', 'Quantity': 49}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Steam Iron', 'Quantity': 2}, {'Name': 'LED Bulb', 'Quantity': 10}, {'Name': 'Floor Lamp', 'Quantity': 8}, {'Name': 'Eyeshadow Palette', 'Quantity': 9}]</t>
+    <t>[{'Name': 'Measuring Tape', 'Quantity': 13}, {'Name': 'Screw Assortment Kit', 'Quantity': 14}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Hammer', 'Quantity': 13}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Mascara', 'Quantity': 287}, {'Name': 'Facial Cleanser', 'Quantity': 287}, {'Name': 'Vacuum Cleaner', 'Quantity': 5}, {'Name': 'HDMI Cable', 'Quantity': 285}]</t>
+    <t>[{'Name': 'Hammer', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 20}, {'Name': 'Wireless Headphones', 'Quantity': 20}, {'Name': 'Blender', 'Quantity': 18}]</t>
   </si>
   <si>
-    <t>[{'Name': 'USB Flash Drive', 'Quantity': 616}, {'Name': 'Facial Cleanser', 'Quantity': 70}, {'Name': 'HDMI Cable', 'Quantity': 81}]</t>
+    <t>[{'Name': 'Floor Lamp', 'Quantity': 8}, {'Name': 'LED Bulb', 'Quantity': 11}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 8}, {'Name': 'Essential Oil Set', 'Quantity': 10}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Mascara', 'Quantity': 30}, {'Name': 'Lipstick', 'Quantity': 29}]</t>
+    <t>[{'Name': 'Paint Roller Kit', 'Quantity': 9}, {'Name': 'Floor Lamp', 'Quantity': 7}, {'Name': 'LED Bulb', 'Quantity': 23}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 13}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Measuring Tape', 'Quantity': 10}, {'Name': 'Lipstick', 'Quantity': 48}]</t>
+    <t>[{'Name': 'Facial Cleanser', 'Quantity': 43}, {'Name': 'Mascara', 'Quantity': 42}, {'Name': 'Lipstick', 'Quantity': 42}, {'Name': 'Power Drill', 'Quantity': 42}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Mascara', 'Quantity': 29}, {'Name': 'Lipstick', 'Quantity': 30}]</t>
+    <t>[{'Name': 'Measuring Tape', 'Quantity': 12}, {'Name': 'Screw Assortment Kit', 'Quantity': 12}, {'Name': 'Food Storage Containers', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 11}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Wireless Mouse', 'Quantity': 8}, {'Name': 'Moisturizing Cream', 'Quantity': 80}, {'Name': 'Facial Cleanser', 'Quantity': 81}, {'Name': 'LED Bulb', 'Quantity': 80}]</t>
+    <t>[{'Name': 'LED Bulb', 'Quantity': 29}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 23}, {'Name': 'Essential Oil Set', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 3}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Facial Cleanser', 'Quantity': 11}, {'Name': 'LED Bulb', 'Quantity': 10}, {'Name': 'Floor Lamp', 'Quantity': 5}, {'Name': 'Power Drill', 'Quantity': 4}]</t>
+    <t>[{'Name': 'Facial Cleanser', 'Quantity': 29}, {'Name': 'Mascara', 'Quantity': 28}, {'Name': 'Lipstick', 'Quantity': 28}, {'Name': 'Power Drill', 'Quantity': 28}]</t>
   </si>
   <si>
-    <t>[{'Name': 'Facial Cleanser', 'Quantity': 28}, {'Name': 'LED Bulb', 'Quantity': 28}, {'Name': 'Power Drill', 'Quantity': 24}, {'Name': 'Paint Brush Set', 'Quantity': 27}]</t>
+    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 16}, {'Name': 'Wireless Headphones', 'Quantity': 13}, {'Name': 'Blender', 'Quantity': 4}, {'Name': 'Cookware Set', 'Quantity': 3}]</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 23}, {'Name': 'Power Drill', 'Quantity': 20}, {'Name': 'Paint Brush Set', 'Quantity': 22}, {'Name': 'Paint Roller Kit', 'Quantity': 21}]</t>
+    <t>[{'Name': 'Floor Lamp', 'Quantity': 4}, {'Name': 'LED Bulb', 'Quantity': 42}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 41}, {'Name': 'Essential Oil Set', 'Quantity': 42}]</t>
   </si>
   <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 36}, {'Name': 'Blender', 'Quantity': 16}, {'Name': 'Mascara', 'Quantity': 35}, {'Name': 'Lipstick', 'Quantity': 35}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 31}, {'Name': 'Paint Brush Set', 'Quantity': 31}, {'Name': 'Paint Roller Kit', 'Quantity': 8}, {'Name': 'Power Drill', 'Quantity': 23}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'Facial Cleanser', 'Quantity': 12}, {'Name': 'LED Bulb', 'Quantity': 12}, {'Name': 'Floor Lamp', 'Quantity': 4}, {'Name': 'Power Drill', 'Quantity': 9}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 22}, {'Name': 'Paint Brush Set', 'Quantity': 22}, {'Name': 'Paint Roller Kit', 'Quantity': 21}, {'Name': 'Power Drill', 'Quantity': 20}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 2}, {'Name': 'Blender', 'Quantity': 16}, {'Name': 'Mascara', 'Quantity': 85}, {'Name': 'Lipstick', 'Quantity': 86}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 18}, {'Name': 'Paint Brush Set', 'Quantity': 18}, {'Name': 'Power Drill', 'Quantity': 16}, {'Name': 'Blender', 'Quantity': 15}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 20}, {'Name': 'Screwdriver Set', 'Quantity': 20}, {'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Toolbox', 'Quantity': 18}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 23}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Toolbox', 'Quantity': 19}, {'Name': 'Mascara', 'Quantity': 21}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 31}, {'Name': 'Paint Brush Set', 'Quantity': 9}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Blender', 'Quantity': 16}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 23}, {'Name': 'Screwdriver Set', 'Quantity': 4}, {'Name': 'Measuring Tape', 'Quantity': 21}, {'Name': 'Toolbox', 'Quantity': 19}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'LED Bulb', 'Quantity': 74}, {'Name': 'Lipstick', 'Quantity': 74}, {'Name': 'Coffee Maker', 'Quantity': 7}, {'Name': 'Wireless Headphones', 'Quantity': 73}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'USB Flash Drive', 'Quantity': 272}, {'Name': 'Moisturizing Cream', 'Quantity': 187}, {'Name': 'Facial Cleanser', 'Quantity': 271}, {'Name': 'Blender', 'Quantity': 5}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'Mascara', 'Quantity': 19}, {'Name': 'Eyeshadow Palette', 'Quantity': 4}, {'Name': 'Facial Cleanser', 'Quantity': 17}, {'Name': 'Vacuum Cleaner', 'Quantity': 13}]</t>
-  </si>
-  <si>
-    <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 67}, {'Name': 'Measuring Tape', 'Quantity': 67}, {'Name': 'Toolbox', 'Quantity': 6}, {'Name': 'Mascara', 'Quantity': 65}]</t>
+    <t>[{'Name': 'Facial Cleanser', 'Quantity': 109}, {'Name': 'Mascara', 'Quantity': 352}, {'Name': 'Lipstick', 'Quantity': 353}, {'Name': 'Power Drill', 'Quantity': 2}]</t>
   </si>
   <si>
     <t>Slot</t>
@@ -891,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="P102" sqref="P102"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1005,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>5008</v>
+        <v>5003</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1026,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1055,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1076,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1105,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>5006</v>
+        <v>5011</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1126,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1144,7 +1108,7 @@
         <v>144000</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1155,7 +1119,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>5014</v>
+        <v>5007</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1176,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1194,7 +1158,7 @@
         <v>144000</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1226,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1252,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>5018</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1276,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1294,7 +1258,7 @@
         <v>144000</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1326,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1355,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>5009</v>
+        <v>5004</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1376,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1402,10 +1366,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>5061</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1455,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>5007</v>
+        <v>5012</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1476,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1494,7 +1458,7 @@
         <v>144000</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1505,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>5015</v>
+        <v>5008</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1526,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1544,7 +1508,7 @@
         <v>144000</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1576,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1594,7 +1558,7 @@
         <v>144000</v>
       </c>
       <c r="P14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1602,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5019</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1626,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1644,7 +1608,7 @@
         <v>144000</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1652,10 +1616,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1694,7 +1658,7 @@
         <v>144000</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1705,7 +1669,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1726,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1752,7 +1716,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1794,7 +1758,7 @@
         <v>144000</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1802,10 +1766,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5013</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1826,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1844,7 +1808,7 @@
         <v>144000</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1855,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>5016</v>
+        <v>5009</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1876,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1894,7 +1858,7 @@
         <v>144000</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1902,7 +1866,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1944,7 +1908,7 @@
         <v>144000</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1976,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1994,7 +1958,7 @@
         <v>288000</v>
       </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2005,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>5033</v>
+        <v>5025</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2026,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2055,7 +2019,7 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2076,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2094,7 +2058,7 @@
         <v>288000</v>
       </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2105,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>5026</v>
+        <v>5083</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2126,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -2144,7 +2108,7 @@
         <v>288000</v>
       </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2155,7 +2119,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>5035</v>
+        <v>5029</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2176,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2205,7 +2169,7 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>5029</v>
+        <v>5037</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2226,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2244,7 +2208,7 @@
         <v>288000</v>
       </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2255,7 +2219,7 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>5036</v>
+        <v>5085</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2276,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2294,7 +2258,7 @@
         <v>288000</v>
       </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2326,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2344,7 +2308,7 @@
         <v>288000</v>
       </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2355,7 +2319,7 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>5037</v>
+        <v>5026</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2376,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2405,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>5038</v>
+        <v>5034</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2426,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2444,7 +2408,7 @@
         <v>288000</v>
       </c>
       <c r="P31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2455,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>5027</v>
+        <v>5087</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2476,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2494,7 +2458,7 @@
         <v>288000</v>
       </c>
       <c r="P32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2505,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="C33">
-        <v>5039</v>
+        <v>5030</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2526,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2555,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <v>5030</v>
+        <v>5038</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2576,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2594,7 +2558,7 @@
         <v>288000</v>
       </c>
       <c r="P34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2605,7 +2569,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>5040</v>
+        <v>5089</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2626,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2644,7 +2608,7 @@
         <v>288000</v>
       </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2676,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2694,7 +2658,7 @@
         <v>288000</v>
       </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2702,10 +2666,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5027</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2726,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2744,7 +2708,7 @@
         <v>288000</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2755,7 +2719,7 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>5098</v>
+        <v>5035</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2776,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -2805,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>5028</v>
+        <v>5091</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2826,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -2844,7 +2808,7 @@
         <v>288000</v>
       </c>
       <c r="P39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2855,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="C40">
-        <v>5100</v>
+        <v>5031</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2876,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -2894,7 +2858,7 @@
         <v>288000</v>
       </c>
       <c r="P40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2905,7 +2869,7 @@
         <v>16</v>
       </c>
       <c r="C41">
-        <v>5031</v>
+        <v>5039</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2926,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -2944,7 +2908,7 @@
         <v>288000</v>
       </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2955,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <v>5045</v>
+        <v>5041</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2976,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -2994,7 +2958,7 @@
         <v>432000</v>
       </c>
       <c r="P42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3005,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <v>5048</v>
+        <v>5046</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3026,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -3044,7 +3008,7 @@
         <v>432000</v>
       </c>
       <c r="P43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3055,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>5052</v>
+        <v>5047</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3076,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3094,7 +3058,7 @@
         <v>432000</v>
       </c>
       <c r="P44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3105,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>5053</v>
+        <v>5054</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3126,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3144,7 +3108,7 @@
         <v>432000</v>
       </c>
       <c r="P45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3155,7 +3119,7 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>5104</v>
+        <v>5106</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3176,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -3194,7 +3158,7 @@
         <v>432000</v>
       </c>
       <c r="P46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3205,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>5109</v>
+        <v>5051</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3226,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3244,7 +3208,7 @@
         <v>432000</v>
       </c>
       <c r="P47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3255,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>5057</v>
+        <v>5058</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3276,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -3294,7 +3258,7 @@
         <v>432000</v>
       </c>
       <c r="P48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3305,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>5046</v>
+        <v>5042</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3326,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -3344,7 +3308,7 @@
         <v>432000</v>
       </c>
       <c r="P49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3352,10 +3316,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>5049</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3394,7 +3358,7 @@
         <v>432000</v>
       </c>
       <c r="P50" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3402,10 +3366,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>5048</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3426,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -3444,7 +3408,7 @@
         <v>432000</v>
       </c>
       <c r="P51" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3455,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>5054</v>
+        <v>5055</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3476,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -3494,7 +3458,7 @@
         <v>432000</v>
       </c>
       <c r="P52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3526,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -3544,7 +3508,7 @@
         <v>432000</v>
       </c>
       <c r="P53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3555,7 +3519,7 @@
         <v>16</v>
       </c>
       <c r="C54">
-        <v>5110</v>
+        <v>5052</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3576,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -3594,7 +3558,7 @@
         <v>432000</v>
       </c>
       <c r="P54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3605,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>5058</v>
+        <v>5059</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3626,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -3644,7 +3608,7 @@
         <v>432000</v>
       </c>
       <c r="P55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3655,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3676,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>3</v>
@@ -3694,7 +3658,7 @@
         <v>432000</v>
       </c>
       <c r="P56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3702,10 +3666,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C57">
-        <v>5043</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3744,7 +3708,7 @@
         <v>432000</v>
       </c>
       <c r="P57" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3752,10 +3716,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>5049</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3776,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -3794,7 +3758,7 @@
         <v>432000</v>
       </c>
       <c r="P58" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3805,7 +3769,7 @@
         <v>16</v>
       </c>
       <c r="C59">
-        <v>5044</v>
+        <v>5056</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3826,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -3844,7 +3808,7 @@
         <v>432000</v>
       </c>
       <c r="P59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3876,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -3894,7 +3858,7 @@
         <v>432000</v>
       </c>
       <c r="P60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3905,7 +3869,7 @@
         <v>16</v>
       </c>
       <c r="C61">
-        <v>5111</v>
+        <v>5053</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3926,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -3944,7 +3908,7 @@
         <v>432000</v>
       </c>
       <c r="P61" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3955,7 +3919,7 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3976,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3994,7 +3958,7 @@
         <v>144000</v>
       </c>
       <c r="P62" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4005,7 +3969,7 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4026,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4044,7 +4008,7 @@
         <v>144000</v>
       </c>
       <c r="P63" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4052,10 +4016,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>5067</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4094,7 +4058,7 @@
         <v>144000</v>
       </c>
       <c r="P64" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4102,7 +4066,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4144,7 +4108,7 @@
         <v>144000</v>
       </c>
       <c r="P65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4152,10 +4116,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>5018</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4194,7 +4158,7 @@
         <v>144000</v>
       </c>
       <c r="P66" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4202,10 +4166,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4226,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4244,7 +4208,7 @@
         <v>144000</v>
       </c>
       <c r="P67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4252,7 +4216,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4294,7 +4258,7 @@
         <v>144000</v>
       </c>
       <c r="P68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4302,10 +4266,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>5015</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4326,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4344,7 +4308,7 @@
         <v>144000</v>
       </c>
       <c r="P69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4352,10 +4316,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>5063</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4394,7 +4358,7 @@
         <v>144000</v>
       </c>
       <c r="P70" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4402,7 +4366,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4444,7 +4408,7 @@
         <v>144000</v>
       </c>
       <c r="P71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4452,7 +4416,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4494,7 +4458,7 @@
         <v>144000</v>
       </c>
       <c r="P72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4502,10 +4466,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>5019</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -4544,7 +4508,7 @@
         <v>144000</v>
       </c>
       <c r="P73" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4552,10 +4516,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>5062</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4576,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4594,7 +4558,7 @@
         <v>144000</v>
       </c>
       <c r="P74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4602,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4644,7 +4608,7 @@
         <v>144000</v>
       </c>
       <c r="P75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4652,10 +4616,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>5016</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4676,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -4694,7 +4658,7 @@
         <v>144000</v>
       </c>
       <c r="P76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4702,10 +4666,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>5064</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4744,7 +4708,7 @@
         <v>144000</v>
       </c>
       <c r="P77" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4752,7 +4716,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4794,7 +4758,7 @@
         <v>144000</v>
       </c>
       <c r="P78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4802,10 +4766,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>5020</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4826,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -4844,7 +4808,7 @@
         <v>144000</v>
       </c>
       <c r="P79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4852,10 +4816,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C80">
-        <v>5004</v>
+        <v>0</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4894,7 +4858,7 @@
         <v>144000</v>
       </c>
       <c r="P80" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4905,7 +4869,7 @@
         <v>16</v>
       </c>
       <c r="C81">
-        <v>5011</v>
+        <v>5006</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4926,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -4944,7 +4908,7 @@
         <v>144000</v>
       </c>
       <c r="P81" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4955,7 +4919,7 @@
         <v>16</v>
       </c>
       <c r="C82">
-        <v>5081</v>
+        <v>5092</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4976,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -4994,7 +4958,7 @@
         <v>288000</v>
       </c>
       <c r="P82" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5026,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -5044,7 +5008,7 @@
         <v>288000</v>
       </c>
       <c r="P83" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -5055,7 +5019,7 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>5086</v>
+        <v>5098</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5076,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -5094,7 +5058,7 @@
         <v>288000</v>
       </c>
       <c r="P84" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5105,7 +5069,7 @@
         <v>16</v>
       </c>
       <c r="C85">
-        <v>5091</v>
+        <v>5096</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -5126,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -5144,7 +5108,7 @@
         <v>288000</v>
       </c>
       <c r="P85" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -5152,10 +5116,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5176,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -5194,7 +5158,7 @@
         <v>288000</v>
       </c>
       <c r="P86" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5205,7 +5169,7 @@
         <v>16</v>
       </c>
       <c r="C87">
-        <v>5090</v>
+        <v>5086</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -5226,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -5244,7 +5208,7 @@
         <v>288000</v>
       </c>
       <c r="P87" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5252,10 +5216,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>5097</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -5294,7 +5258,7 @@
         <v>288000</v>
       </c>
       <c r="P88" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5305,7 +5269,7 @@
         <v>16</v>
       </c>
       <c r="C89">
-        <v>5082</v>
+        <v>5093</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -5326,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -5344,7 +5308,7 @@
         <v>288000</v>
       </c>
       <c r="P89" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5355,7 +5319,7 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>5085</v>
+        <v>5088</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5376,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -5394,7 +5358,7 @@
         <v>288000</v>
       </c>
       <c r="P90" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5402,10 +5366,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C91">
-        <v>5087</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5444,7 +5408,7 @@
         <v>288000</v>
       </c>
       <c r="P91" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5455,7 +5419,7 @@
         <v>16</v>
       </c>
       <c r="C92">
-        <v>5092</v>
+        <v>5097</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5476,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -5494,7 +5458,7 @@
         <v>288000</v>
       </c>
       <c r="P92" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5502,10 +5466,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>5081</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5526,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -5544,7 +5508,7 @@
         <v>288000</v>
       </c>
       <c r="P93" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5552,10 +5516,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5090</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5576,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -5594,7 +5558,7 @@
         <v>288000</v>
       </c>
       <c r="P94" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5602,7 +5566,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -5644,7 +5608,7 @@
         <v>288000</v>
       </c>
       <c r="P95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5655,7 +5619,7 @@
         <v>16</v>
       </c>
       <c r="C96">
-        <v>5083</v>
+        <v>5094</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5676,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -5694,7 +5658,7 @@
         <v>288000</v>
       </c>
       <c r="P96" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5702,7 +5666,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -5744,7 +5708,7 @@
         <v>288000</v>
       </c>
       <c r="P97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5752,10 +5716,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C98">
-        <v>5088</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5794,7 +5758,7 @@
         <v>288000</v>
       </c>
       <c r="P98" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5802,10 +5766,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C99">
-        <v>5093</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5844,7 +5808,7 @@
         <v>288000</v>
       </c>
       <c r="P99" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5876,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -5894,7 +5858,7 @@
         <v>288000</v>
       </c>
       <c r="P100" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5902,10 +5866,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>5028</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5926,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -5944,7 +5908,7 @@
         <v>288000</v>
       </c>
       <c r="P101" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -5955,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>5102</v>
+        <v>5101</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5976,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K102">
         <v>3</v>
@@ -5994,7 +5958,7 @@
         <v>432000</v>
       </c>
       <c r="P102" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -6005,7 +5969,7 @@
         <v>16</v>
       </c>
       <c r="C103">
-        <v>5106</v>
+        <v>5114</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -6026,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K103">
         <v>3</v>
@@ -6044,7 +6008,7 @@
         <v>432000</v>
       </c>
       <c r="P103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -6052,10 +6016,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C104">
-        <v>5114</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -6094,7 +6058,7 @@
         <v>432000</v>
       </c>
       <c r="P104" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -6102,10 +6066,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C105">
-        <v>5116</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -6144,7 +6108,7 @@
         <v>432000</v>
       </c>
       <c r="P105" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -6152,10 +6116,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6176,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K106">
         <v>3</v>
@@ -6194,7 +6158,7 @@
         <v>432000</v>
       </c>
       <c r="P106" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -6202,10 +6166,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C107">
-        <v>5060</v>
+        <v>0</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -6244,7 +6208,7 @@
         <v>432000</v>
       </c>
       <c r="P107" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -6252,10 +6216,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>5113</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -6276,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K108">
         <v>3</v>
@@ -6294,7 +6258,7 @@
         <v>432000</v>
       </c>
       <c r="P108" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -6305,7 +6269,7 @@
         <v>16</v>
       </c>
       <c r="C109">
-        <v>5103</v>
+        <v>5102</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -6326,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K109">
         <v>3</v>
@@ -6344,7 +6308,7 @@
         <v>432000</v>
       </c>
       <c r="P109" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -6352,10 +6316,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>5115</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -6376,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -6394,7 +6358,7 @@
         <v>432000</v>
       </c>
       <c r="P110" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -6402,10 +6366,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>5115</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -6444,7 +6408,7 @@
         <v>432000</v>
       </c>
       <c r="P111" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -6452,10 +6416,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>5117</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -6494,7 +6458,7 @@
         <v>432000</v>
       </c>
       <c r="P112" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -6505,7 +6469,7 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>5047</v>
+        <v>5111</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -6526,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -6544,7 +6508,7 @@
         <v>432000</v>
       </c>
       <c r="P113" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6552,10 +6516,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -6594,7 +6558,7 @@
         <v>432000</v>
       </c>
       <c r="P114" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -6602,7 +6566,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -6644,7 +6608,7 @@
         <v>432000</v>
       </c>
       <c r="P115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -6655,7 +6619,7 @@
         <v>16</v>
       </c>
       <c r="C116">
-        <v>5055</v>
+        <v>5103</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -6676,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K116">
         <v>3</v>
@@ -6694,7 +6658,7 @@
         <v>432000</v>
       </c>
       <c r="P116" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6702,10 +6666,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -6726,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -6744,7 +6708,7 @@
         <v>432000</v>
       </c>
       <c r="P117" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6752,10 +6716,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>5104</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6776,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K118">
         <v>3</v>
@@ -6794,7 +6758,7 @@
         <v>432000</v>
       </c>
       <c r="P118" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -6805,7 +6769,7 @@
         <v>16</v>
       </c>
       <c r="C119">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -6826,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K119">
         <v>3</v>
@@ -6844,7 +6808,7 @@
         <v>432000</v>
       </c>
       <c r="P119" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -6852,10 +6816,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>5044</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6876,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K120">
         <v>3</v>
@@ -6894,7 +6858,7 @@
         <v>432000</v>
       </c>
       <c r="P120" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -6902,10 +6866,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C121">
-        <v>5051</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6944,7 +6908,7 @@
         <v>432000</v>
       </c>
       <c r="P121" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -6952,7 +6916,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -6994,7 +6958,7 @@
         <v>144000</v>
       </c>
       <c r="P122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -7002,7 +6966,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -7044,7 +7008,7 @@
         <v>144000</v>
       </c>
       <c r="P123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
@@ -7052,7 +7016,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -7094,7 +7058,7 @@
         <v>144000</v>
       </c>
       <c r="P124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
@@ -7102,7 +7066,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -7144,7 +7108,7 @@
         <v>144000</v>
       </c>
       <c r="P125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -7152,7 +7116,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -7194,7 +7158,7 @@
         <v>144000</v>
       </c>
       <c r="P126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -7202,7 +7166,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -7244,7 +7208,7 @@
         <v>144000</v>
       </c>
       <c r="P127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
@@ -7252,7 +7216,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -7294,7 +7258,7 @@
         <v>144000</v>
       </c>
       <c r="P128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
@@ -7302,7 +7266,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -7344,7 +7308,7 @@
         <v>144000</v>
       </c>
       <c r="P129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
@@ -7352,7 +7316,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -7394,7 +7358,7 @@
         <v>144000</v>
       </c>
       <c r="P130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -7402,7 +7366,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -7444,7 +7408,7 @@
         <v>144000</v>
       </c>
       <c r="P131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -7452,7 +7416,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -7494,7 +7458,7 @@
         <v>144000</v>
       </c>
       <c r="P132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
@@ -7502,7 +7466,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -7544,7 +7508,7 @@
         <v>144000</v>
       </c>
       <c r="P133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -7552,7 +7516,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7594,7 +7558,7 @@
         <v>144000</v>
       </c>
       <c r="P134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
@@ -7602,7 +7566,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -7644,7 +7608,7 @@
         <v>144000</v>
       </c>
       <c r="P135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
@@ -7652,7 +7616,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -7694,7 +7658,7 @@
         <v>144000</v>
       </c>
       <c r="P136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
@@ -7702,10 +7666,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C137">
-        <v>5020</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7744,7 +7708,7 @@
         <v>144000</v>
       </c>
       <c r="P137" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
@@ -7752,10 +7716,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>5063</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -7776,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -7794,7 +7758,7 @@
         <v>144000</v>
       </c>
       <c r="P138" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
@@ -7802,7 +7766,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -7844,7 +7808,7 @@
         <v>144000</v>
       </c>
       <c r="P139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
@@ -7876,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K140">
         <v>1</v>
@@ -7894,7 +7858,7 @@
         <v>144000</v>
       </c>
       <c r="P140" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
@@ -7902,10 +7866,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C141">
-        <v>5005</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -7944,7 +7908,7 @@
         <v>144000</v>
       </c>
       <c r="P141" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -7955,7 +7919,7 @@
         <v>16</v>
       </c>
       <c r="C142">
-        <v>5094</v>
+        <v>5099</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -7976,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -7994,7 +7958,7 @@
         <v>288000</v>
       </c>
       <c r="P142" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
@@ -8002,7 +7966,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -8044,7 +8008,7 @@
         <v>288000</v>
       </c>
       <c r="P143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
@@ -8052,7 +8016,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -8094,7 +8058,7 @@
         <v>288000</v>
       </c>
       <c r="P144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
@@ -8102,7 +8066,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -8144,7 +8108,7 @@
         <v>288000</v>
       </c>
       <c r="P145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -8152,7 +8116,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -8194,7 +8158,7 @@
         <v>288000</v>
       </c>
       <c r="P146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
@@ -8202,10 +8166,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C147">
-        <v>5099</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -8244,7 +8208,7 @@
         <v>288000</v>
       </c>
       <c r="P147" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
@@ -8252,7 +8216,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -8294,7 +8258,7 @@
         <v>288000</v>
       </c>
       <c r="P148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
@@ -8305,7 +8269,7 @@
         <v>16</v>
       </c>
       <c r="C149">
-        <v>5095</v>
+        <v>5100</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -8326,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -8344,7 +8308,7 @@
         <v>288000</v>
       </c>
       <c r="P149" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
@@ -8352,7 +8316,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -8394,7 +8358,7 @@
         <v>288000</v>
       </c>
       <c r="P150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
@@ -8402,7 +8366,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -8444,7 +8408,7 @@
         <v>288000</v>
       </c>
       <c r="P151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
@@ -8452,7 +8416,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -8494,7 +8458,7 @@
         <v>288000</v>
       </c>
       <c r="P152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
@@ -8502,7 +8466,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -8544,7 +8508,7 @@
         <v>288000</v>
       </c>
       <c r="P153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
@@ -8552,7 +8516,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -8594,7 +8558,7 @@
         <v>288000</v>
       </c>
       <c r="P154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
@@ -8602,7 +8566,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -8644,7 +8608,7 @@
         <v>288000</v>
       </c>
       <c r="P155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
@@ -8652,10 +8616,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C156">
-        <v>5096</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -8694,7 +8658,7 @@
         <v>288000</v>
       </c>
       <c r="P156" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
@@ -8702,10 +8666,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>5082</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -8726,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -8744,7 +8708,7 @@
         <v>288000</v>
       </c>
       <c r="P157" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
@@ -8752,7 +8716,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -8794,7 +8758,7 @@
         <v>288000</v>
       </c>
       <c r="P158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
@@ -8805,7 +8769,7 @@
         <v>16</v>
       </c>
       <c r="C159">
-        <v>5032</v>
+        <v>5036</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -8826,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -8844,7 +8808,7 @@
         <v>288000</v>
       </c>
       <c r="P159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
@@ -8855,7 +8819,7 @@
         <v>16</v>
       </c>
       <c r="C160">
-        <v>5089</v>
+        <v>5095</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -8876,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K160">
         <v>2</v>
@@ -8894,7 +8858,7 @@
         <v>288000</v>
       </c>
       <c r="P160" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -8905,7 +8869,7 @@
         <v>16</v>
       </c>
       <c r="C161">
-        <v>5025</v>
+        <v>5032</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -8926,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -8944,7 +8908,7 @@
         <v>288000</v>
       </c>
       <c r="P161" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -8952,7 +8916,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -8994,7 +8958,7 @@
         <v>432000</v>
       </c>
       <c r="P162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
@@ -9002,10 +8966,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>5118</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9026,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K163">
         <v>3</v>
@@ -9044,7 +9008,7 @@
         <v>432000</v>
       </c>
       <c r="P163" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
@@ -9052,10 +9016,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C164">
-        <v>5113</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -9094,7 +9058,7 @@
         <v>432000</v>
       </c>
       <c r="P164" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -9102,7 +9066,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -9144,7 +9108,7 @@
         <v>432000</v>
       </c>
       <c r="P165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
@@ -9152,7 +9116,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -9194,7 +9158,7 @@
         <v>432000</v>
       </c>
       <c r="P166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
@@ -9202,7 +9166,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -9244,7 +9208,7 @@
         <v>432000</v>
       </c>
       <c r="P167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
@@ -9252,7 +9216,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -9294,7 +9258,7 @@
         <v>432000</v>
       </c>
       <c r="P168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -9302,7 +9266,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -9344,7 +9308,7 @@
         <v>432000</v>
       </c>
       <c r="P169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
@@ -9352,10 +9316,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>5119</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -9376,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K170">
         <v>3</v>
@@ -9394,7 +9358,7 @@
         <v>432000</v>
       </c>
       <c r="P170" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
@@ -9402,10 +9366,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C171">
-        <v>5101</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -9444,7 +9408,7 @@
         <v>432000</v>
       </c>
       <c r="P171" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
@@ -9452,7 +9416,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -9494,7 +9458,7 @@
         <v>432000</v>
       </c>
       <c r="P172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -9502,7 +9466,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -9544,7 +9508,7 @@
         <v>432000</v>
       </c>
       <c r="P173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
@@ -9552,7 +9516,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -9594,7 +9558,7 @@
         <v>432000</v>
       </c>
       <c r="P174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
@@ -9602,7 +9566,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -9644,7 +9608,7 @@
         <v>432000</v>
       </c>
       <c r="P175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
@@ -9652,10 +9616,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C176">
-        <v>5118</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -9694,7 +9658,7 @@
         <v>432000</v>
       </c>
       <c r="P176" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
@@ -9702,10 +9666,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>5112</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -9726,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K177">
         <v>3</v>
@@ -9744,7 +9708,7 @@
         <v>432000</v>
       </c>
       <c r="P177" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
@@ -9752,7 +9716,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -9794,7 +9758,7 @@
         <v>432000</v>
       </c>
       <c r="P178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
@@ -9802,10 +9766,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -9826,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K179">
         <v>3</v>
@@ -9844,7 +9808,7 @@
         <v>432000</v>
       </c>
       <c r="P179" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
@@ -9855,7 +9819,7 @@
         <v>16</v>
       </c>
       <c r="C180">
-        <v>5056</v>
+        <v>5057</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -9876,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K180">
         <v>3</v>
@@ -9894,7 +9858,7 @@
         <v>432000</v>
       </c>
       <c r="P180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
@@ -9926,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K181">
         <v>3</v>
@@ -9944,7 +9908,7 @@
         <v>432000</v>
       </c>
       <c r="P181" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
@@ -9952,7 +9916,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -9994,7 +9958,7 @@
         <v>432000</v>
       </c>
       <c r="P182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
@@ -10002,7 +9966,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -10044,7 +10008,7 @@
         <v>432000</v>
       </c>
       <c r="P183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
@@ -10052,7 +10016,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -10094,7 +10058,7 @@
         <v>432000</v>
       </c>
       <c r="P184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
@@ -10102,7 +10066,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -10144,7 +10108,7 @@
         <v>432000</v>
       </c>
       <c r="P185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
@@ -10152,7 +10116,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -10194,7 +10158,7 @@
         <v>432000</v>
       </c>
       <c r="P186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
@@ -10202,7 +10166,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -10244,7 +10208,7 @@
         <v>432000</v>
       </c>
       <c r="P187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
@@ -10252,7 +10216,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -10294,7 +10258,7 @@
         <v>432000</v>
       </c>
       <c r="P188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
@@ -10302,7 +10266,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -10344,7 +10308,7 @@
         <v>432000</v>
       </c>
       <c r="P189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
@@ -10352,7 +10316,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -10394,7 +10358,7 @@
         <v>432000</v>
       </c>
       <c r="P190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
@@ -10402,7 +10366,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -10444,7 +10408,7 @@
         <v>432000</v>
       </c>
       <c r="P191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
@@ -10452,7 +10416,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -10494,7 +10458,7 @@
         <v>432000</v>
       </c>
       <c r="P192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
@@ -10502,7 +10466,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -10544,7 +10508,7 @@
         <v>432000</v>
       </c>
       <c r="P193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
@@ -10552,7 +10516,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -10594,7 +10558,7 @@
         <v>432000</v>
       </c>
       <c r="P194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
@@ -10602,7 +10566,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -10644,7 +10608,7 @@
         <v>432000</v>
       </c>
       <c r="P195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
@@ -10652,7 +10616,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -10694,7 +10658,7 @@
         <v>432000</v>
       </c>
       <c r="P196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
@@ -10702,7 +10666,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -10744,7 +10708,7 @@
         <v>432000</v>
       </c>
       <c r="P197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
@@ -10752,7 +10716,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -10794,7 +10758,7 @@
         <v>432000</v>
       </c>
       <c r="P198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
@@ -10805,7 +10769,7 @@
         <v>16</v>
       </c>
       <c r="C199">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -10826,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K199">
         <v>3</v>
@@ -10844,7 +10808,7 @@
         <v>432000</v>
       </c>
       <c r="P199" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
@@ -10855,7 +10819,7 @@
         <v>16</v>
       </c>
       <c r="C200">
-        <v>5112</v>
+        <v>5109</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -10876,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K200">
         <v>3</v>
@@ -10905,7 +10869,7 @@
         <v>16</v>
       </c>
       <c r="C201">
-        <v>5041</v>
+        <v>5045</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -10926,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K201">
         <v>3</v>
@@ -10944,7 +10908,7 @@
         <v>432000</v>
       </c>
       <c r="P201" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10968,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
@@ -10995,13 +10959,13 @@
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>15</v>
@@ -11042,7 +11006,7 @@
         <v>144000</v>
       </c>
       <c r="L2">
-        <v>136224</v>
+        <v>135500</v>
       </c>
       <c r="M2">
         <v>95</v>
@@ -11089,7 +11053,7 @@
         <v>144000</v>
       </c>
       <c r="L3">
-        <v>136224</v>
+        <v>135500</v>
       </c>
       <c r="M3">
         <v>95</v>
@@ -11109,7 +11073,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -11136,7 +11100,7 @@
         <v>144000</v>
       </c>
       <c r="L4">
-        <v>136224</v>
+        <v>135420</v>
       </c>
       <c r="M4">
         <v>95</v>
@@ -11145,7 +11109,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -11156,7 +11120,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -11183,7 +11147,7 @@
         <v>144000</v>
       </c>
       <c r="L5">
-        <v>136224</v>
+        <v>135420</v>
       </c>
       <c r="M5">
         <v>95</v>
@@ -11192,7 +11156,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -11203,7 +11167,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -11230,7 +11194,7 @@
         <v>144000</v>
       </c>
       <c r="L6">
-        <v>136224</v>
+        <v>135420</v>
       </c>
       <c r="M6">
         <v>95</v>
@@ -11239,7 +11203,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -11250,7 +11214,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -11277,7 +11241,7 @@
         <v>144000</v>
       </c>
       <c r="L7">
-        <v>136224</v>
+        <v>135420</v>
       </c>
       <c r="M7">
         <v>95</v>
@@ -11286,7 +11250,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -11297,7 +11261,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -11324,7 +11288,7 @@
         <v>144000</v>
       </c>
       <c r="L8">
-        <v>135544</v>
+        <v>135420</v>
       </c>
       <c r="M8">
         <v>95</v>
@@ -11333,7 +11297,7 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -11344,7 +11308,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -11371,7 +11335,7 @@
         <v>144000</v>
       </c>
       <c r="L9">
-        <v>135430</v>
+        <v>135420</v>
       </c>
       <c r="M9">
         <v>95</v>
@@ -11380,7 +11344,7 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -11391,7 +11355,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -11418,7 +11382,7 @@
         <v>144000</v>
       </c>
       <c r="L10">
-        <v>135430</v>
+        <v>135420</v>
       </c>
       <c r="M10">
         <v>95</v>
@@ -11427,7 +11391,7 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -11438,7 +11402,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11465,16 +11429,16 @@
         <v>144000</v>
       </c>
       <c r="L11">
-        <v>135430</v>
+        <v>135000</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -11485,7 +11449,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -11512,7 +11476,7 @@
         <v>144000</v>
       </c>
       <c r="L12">
-        <v>135790</v>
+        <v>135800</v>
       </c>
       <c r="M12">
         <v>95</v>
@@ -11521,7 +11485,7 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -11532,7 +11496,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -11559,16 +11523,16 @@
         <v>144000</v>
       </c>
       <c r="L13">
-        <v>135491</v>
+        <v>135800</v>
       </c>
       <c r="M13">
         <v>95</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -11579,7 +11543,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -11606,16 +11570,16 @@
         <v>144000</v>
       </c>
       <c r="L14">
-        <v>60621</v>
+        <v>135800</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -11626,7 +11590,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -11653,7 +11617,7 @@
         <v>144000</v>
       </c>
       <c r="L15">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M15">
         <v>95</v>
@@ -11662,7 +11626,7 @@
         <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -11673,7 +11637,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -11700,7 +11664,7 @@
         <v>144000</v>
       </c>
       <c r="L16">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M16">
         <v>95</v>
@@ -11709,7 +11673,7 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -11720,7 +11684,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -11747,7 +11711,7 @@
         <v>144000</v>
       </c>
       <c r="L17">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M17">
         <v>95</v>
@@ -11756,7 +11720,7 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -11794,7 +11758,7 @@
         <v>144000</v>
       </c>
       <c r="L18">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M18">
         <v>95</v>
@@ -11803,7 +11767,7 @@
         <v>4</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -11814,7 +11778,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -11841,7 +11805,7 @@
         <v>144000</v>
       </c>
       <c r="L19">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M19">
         <v>95</v>
@@ -11850,7 +11814,7 @@
         <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -11861,7 +11825,7 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -11888,7 +11852,7 @@
         <v>144000</v>
       </c>
       <c r="L20">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M20">
         <v>95</v>
@@ -11897,7 +11861,7 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -11908,7 +11872,7 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -11935,7 +11899,7 @@
         <v>144000</v>
       </c>
       <c r="L21">
-        <v>135480</v>
+        <v>135750</v>
       </c>
       <c r="M21">
         <v>95</v>
@@ -11944,7 +11908,7 @@
         <v>4</v>
       </c>
       <c r="O21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -11982,7 +11946,7 @@
         <v>288000</v>
       </c>
       <c r="L22">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M22">
         <v>95</v>
@@ -11991,7 +11955,7 @@
         <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -12029,7 +11993,7 @@
         <v>288000</v>
       </c>
       <c r="L23">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M23">
         <v>95</v>
@@ -12038,7 +12002,7 @@
         <v>4</v>
       </c>
       <c r="O23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -12076,7 +12040,7 @@
         <v>288000</v>
       </c>
       <c r="L24">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M24">
         <v>95</v>
@@ -12085,7 +12049,7 @@
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -12123,7 +12087,7 @@
         <v>288000</v>
       </c>
       <c r="L25">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M25">
         <v>95</v>
@@ -12132,7 +12096,7 @@
         <v>4</v>
       </c>
       <c r="O25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -12143,7 +12107,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -12170,7 +12134,7 @@
         <v>288000</v>
       </c>
       <c r="L26">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M26">
         <v>95</v>
@@ -12190,7 +12154,7 @@
         <v>16</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -12217,7 +12181,7 @@
         <v>288000</v>
       </c>
       <c r="L27">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M27">
         <v>95</v>
@@ -12237,7 +12201,7 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -12264,7 +12228,7 @@
         <v>288000</v>
       </c>
       <c r="L28">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M28">
         <v>95</v>
@@ -12284,7 +12248,7 @@
         <v>16</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -12311,7 +12275,7 @@
         <v>288000</v>
       </c>
       <c r="L29">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M29">
         <v>95</v>
@@ -12331,7 +12295,7 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -12358,7 +12322,7 @@
         <v>288000</v>
       </c>
       <c r="L30">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M30">
         <v>95</v>
@@ -12378,7 +12342,7 @@
         <v>16</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -12405,7 +12369,7 @@
         <v>288000</v>
       </c>
       <c r="L31">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M31">
         <v>95</v>
@@ -12425,7 +12389,7 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -12452,7 +12416,7 @@
         <v>288000</v>
       </c>
       <c r="L32">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M32">
         <v>95</v>
@@ -12472,7 +12436,7 @@
         <v>16</v>
       </c>
       <c r="C33">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -12499,7 +12463,7 @@
         <v>288000</v>
       </c>
       <c r="L33">
-        <v>270880</v>
+        <v>271000</v>
       </c>
       <c r="M33">
         <v>95</v>
@@ -12508,7 +12472,7 @@
         <v>4</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -12519,7 +12483,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -12546,7 +12510,7 @@
         <v>288000</v>
       </c>
       <c r="L34">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M34">
         <v>95</v>
@@ -12555,7 +12519,7 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -12566,7 +12530,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -12593,7 +12557,7 @@
         <v>288000</v>
       </c>
       <c r="L35">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M35">
         <v>95</v>
@@ -12602,7 +12566,7 @@
         <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -12613,7 +12577,7 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -12640,7 +12604,7 @@
         <v>288000</v>
       </c>
       <c r="L36">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M36">
         <v>95</v>
@@ -12649,7 +12613,7 @@
         <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -12660,7 +12624,7 @@
         <v>16</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -12687,7 +12651,7 @@
         <v>288000</v>
       </c>
       <c r="L37">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M37">
         <v>95</v>
@@ -12696,7 +12660,7 @@
         <v>4</v>
       </c>
       <c r="O37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -12707,7 +12671,7 @@
         <v>16</v>
       </c>
       <c r="C38">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -12734,7 +12698,7 @@
         <v>288000</v>
       </c>
       <c r="L38">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M38">
         <v>95</v>
@@ -12743,7 +12707,7 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -12754,7 +12718,7 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -12781,7 +12745,7 @@
         <v>288000</v>
       </c>
       <c r="L39">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M39">
         <v>95</v>
@@ -12790,7 +12754,7 @@
         <v>4</v>
       </c>
       <c r="O39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -12801,7 +12765,7 @@
         <v>16</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -12828,7 +12792,7 @@
         <v>288000</v>
       </c>
       <c r="L40">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M40">
         <v>95</v>
@@ -12837,7 +12801,7 @@
         <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -12848,7 +12812,7 @@
         <v>16</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -12875,7 +12839,7 @@
         <v>288000</v>
       </c>
       <c r="L41">
-        <v>270880</v>
+        <v>271500</v>
       </c>
       <c r="M41">
         <v>95</v>
@@ -12884,7 +12848,7 @@
         <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -12895,7 +12859,7 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -12922,7 +12886,7 @@
         <v>432000</v>
       </c>
       <c r="L42">
-        <v>406166</v>
+        <v>406120</v>
       </c>
       <c r="M42">
         <v>95</v>
@@ -12931,7 +12895,7 @@
         <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -12942,7 +12906,7 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -12969,7 +12933,7 @@
         <v>432000</v>
       </c>
       <c r="L43">
-        <v>406166</v>
+        <v>406120</v>
       </c>
       <c r="M43">
         <v>95</v>
@@ -12978,7 +12942,7 @@
         <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -12989,7 +12953,7 @@
         <v>16</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -13016,7 +12980,7 @@
         <v>432000</v>
       </c>
       <c r="L44">
-        <v>406166</v>
+        <v>406120</v>
       </c>
       <c r="M44">
         <v>95</v>
@@ -13025,7 +12989,7 @@
         <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -13036,7 +13000,7 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -13063,7 +13027,7 @@
         <v>432000</v>
       </c>
       <c r="L45">
-        <v>406228</v>
+        <v>406120</v>
       </c>
       <c r="M45">
         <v>95</v>
@@ -13072,7 +13036,7 @@
         <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -13083,7 +13047,7 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -13110,7 +13074,7 @@
         <v>432000</v>
       </c>
       <c r="L46">
-        <v>406246</v>
+        <v>406120</v>
       </c>
       <c r="M46">
         <v>95</v>
@@ -13119,7 +13083,7 @@
         <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -13130,7 +13094,7 @@
         <v>16</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -13157,7 +13121,7 @@
         <v>432000</v>
       </c>
       <c r="L47">
-        <v>406246</v>
+        <v>407000</v>
       </c>
       <c r="M47">
         <v>95</v>
@@ -13166,7 +13130,7 @@
         <v>4</v>
       </c>
       <c r="O47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -13177,7 +13141,7 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -13204,7 +13168,7 @@
         <v>432000</v>
       </c>
       <c r="L48">
-        <v>406246</v>
+        <v>406400</v>
       </c>
       <c r="M48">
         <v>95</v>
@@ -13213,7 +13177,7 @@
         <v>4</v>
       </c>
       <c r="O48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -13224,7 +13188,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -13251,7 +13215,7 @@
         <v>432000</v>
       </c>
       <c r="L49">
-        <v>406230</v>
+        <v>406400</v>
       </c>
       <c r="M49">
         <v>95</v>
@@ -13260,7 +13224,7 @@
         <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -13271,7 +13235,7 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -13298,7 +13262,7 @@
         <v>432000</v>
       </c>
       <c r="L50">
-        <v>406230</v>
+        <v>406400</v>
       </c>
       <c r="M50">
         <v>95</v>
@@ -13307,7 +13271,7 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -13318,7 +13282,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -13345,7 +13309,7 @@
         <v>432000</v>
       </c>
       <c r="L51">
-        <v>406230</v>
+        <v>406400</v>
       </c>
       <c r="M51">
         <v>95</v>
@@ -13354,7 +13318,7 @@
         <v>4</v>
       </c>
       <c r="O51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -13365,7 +13329,7 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -13392,7 +13356,7 @@
         <v>432000</v>
       </c>
       <c r="L52">
-        <v>407868</v>
+        <v>406400</v>
       </c>
       <c r="M52">
         <v>95</v>
@@ -13401,7 +13365,7 @@
         <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -13412,7 +13376,7 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -13439,7 +13403,7 @@
         <v>432000</v>
       </c>
       <c r="L53">
-        <v>406560</v>
+        <v>406400</v>
       </c>
       <c r="M53">
         <v>95</v>
@@ -13448,7 +13412,7 @@
         <v>4</v>
       </c>
       <c r="O53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -13459,7 +13423,7 @@
         <v>16</v>
       </c>
       <c r="C54">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -13486,7 +13450,7 @@
         <v>432000</v>
       </c>
       <c r="L54">
-        <v>409000</v>
+        <v>406400</v>
       </c>
       <c r="M54">
         <v>95</v>
@@ -13506,7 +13470,7 @@
         <v>16</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -13533,7 +13497,7 @@
         <v>432000</v>
       </c>
       <c r="L55">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M55">
         <v>95</v>
@@ -13542,7 +13506,7 @@
         <v>4</v>
       </c>
       <c r="O55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -13553,7 +13517,7 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -13580,7 +13544,7 @@
         <v>432000</v>
       </c>
       <c r="L56">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M56">
         <v>95</v>
@@ -13589,7 +13553,7 @@
         <v>4</v>
       </c>
       <c r="O56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -13600,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -13627,7 +13591,7 @@
         <v>432000</v>
       </c>
       <c r="L57">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M57">
         <v>95</v>
@@ -13636,7 +13600,7 @@
         <v>4</v>
       </c>
       <c r="O57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -13647,7 +13611,7 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -13674,7 +13638,7 @@
         <v>432000</v>
       </c>
       <c r="L58">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M58">
         <v>95</v>
@@ -13683,7 +13647,7 @@
         <v>4</v>
       </c>
       <c r="O58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -13694,7 +13658,7 @@
         <v>16</v>
       </c>
       <c r="C59">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -13721,7 +13685,7 @@
         <v>432000</v>
       </c>
       <c r="L59">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M59">
         <v>95</v>
@@ -13730,7 +13694,7 @@
         <v>4</v>
       </c>
       <c r="O59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -13741,7 +13705,7 @@
         <v>16</v>
       </c>
       <c r="C60">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -13768,7 +13732,7 @@
         <v>432000</v>
       </c>
       <c r="L60">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M60">
         <v>95</v>
@@ -13777,7 +13741,7 @@
         <v>4</v>
       </c>
       <c r="O60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -13788,7 +13752,7 @@
         <v>16</v>
       </c>
       <c r="C61">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -13815,7 +13779,7 @@
         <v>432000</v>
       </c>
       <c r="L61">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M61">
         <v>95</v>
@@ -13824,7 +13788,7 @@
         <v>4</v>
       </c>
       <c r="O61" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -13835,7 +13799,7 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -13862,16 +13826,16 @@
         <v>144000</v>
       </c>
       <c r="L62">
-        <v>134640</v>
+        <v>135750</v>
       </c>
       <c r="M62">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N62">
         <v>4</v>
       </c>
       <c r="O62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -13882,7 +13846,7 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -13909,7 +13873,7 @@
         <v>144000</v>
       </c>
       <c r="L63">
-        <v>135478</v>
+        <v>135750</v>
       </c>
       <c r="M63">
         <v>95</v>
@@ -13918,7 +13882,7 @@
         <v>4</v>
       </c>
       <c r="O63" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -13929,7 +13893,7 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -13956,7 +13920,7 @@
         <v>144000</v>
       </c>
       <c r="L64">
-        <v>135478</v>
+        <v>135500</v>
       </c>
       <c r="M64">
         <v>95</v>
@@ -13965,7 +13929,7 @@
         <v>4</v>
       </c>
       <c r="O64" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -13976,7 +13940,7 @@
         <v>16</v>
       </c>
       <c r="C65">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -14003,7 +13967,7 @@
         <v>144000</v>
       </c>
       <c r="L65">
-        <v>135375</v>
+        <v>135500</v>
       </c>
       <c r="M65">
         <v>95</v>
@@ -14012,7 +13976,7 @@
         <v>4</v>
       </c>
       <c r="O65" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -14050,13 +14014,13 @@
         <v>144000</v>
       </c>
       <c r="L66">
-        <v>135388</v>
+        <v>135500</v>
       </c>
       <c r="M66">
         <v>95</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O66" t="s">
         <v>21</v>
@@ -14097,16 +14061,16 @@
         <v>144000</v>
       </c>
       <c r="L67">
-        <v>135388</v>
+        <v>135500</v>
       </c>
       <c r="M67">
         <v>95</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -14114,10 +14078,10 @@
         <v>5067</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -14144,16 +14108,16 @@
         <v>144000</v>
       </c>
       <c r="L68">
-        <v>31536</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -14161,7 +14125,7 @@
         <v>5068</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -14200,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -14208,7 +14172,7 @@
         <v>5069</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -14247,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -14255,7 +14219,7 @@
         <v>5070</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -14294,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -14302,7 +14266,7 @@
         <v>5071</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -14341,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -14349,7 +14313,7 @@
         <v>5072</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -14388,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -14396,7 +14360,7 @@
         <v>5073</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -14435,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -14443,7 +14407,7 @@
         <v>5074</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -14482,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -14490,7 +14454,7 @@
         <v>5075</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -14529,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -14537,7 +14501,7 @@
         <v>5076</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -14576,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -14584,7 +14548,7 @@
         <v>5077</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -14623,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -14631,7 +14595,7 @@
         <v>5078</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -14670,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -14678,7 +14642,7 @@
         <v>5079</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -14717,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -14725,7 +14689,7 @@
         <v>5080</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -14764,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -14775,7 +14739,7 @@
         <v>16</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -14802,7 +14766,7 @@
         <v>288000</v>
       </c>
       <c r="L82">
-        <v>270750</v>
+        <v>271500</v>
       </c>
       <c r="M82">
         <v>95</v>
@@ -14811,7 +14775,7 @@
         <v>4</v>
       </c>
       <c r="O82" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -14822,7 +14786,7 @@
         <v>16</v>
       </c>
       <c r="C83">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -14849,7 +14813,7 @@
         <v>288000</v>
       </c>
       <c r="L83">
-        <v>270750</v>
+        <v>271500</v>
       </c>
       <c r="M83">
         <v>95</v>
@@ -14858,7 +14822,7 @@
         <v>4</v>
       </c>
       <c r="O83" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -14869,7 +14833,7 @@
         <v>16</v>
       </c>
       <c r="C84">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -14896,7 +14860,7 @@
         <v>288000</v>
       </c>
       <c r="L84">
-        <v>270750</v>
+        <v>271500</v>
       </c>
       <c r="M84">
         <v>95</v>
@@ -14905,7 +14869,7 @@
         <v>4</v>
       </c>
       <c r="O84" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -14943,7 +14907,7 @@
         <v>288000</v>
       </c>
       <c r="L85">
-        <v>271750</v>
+        <v>271500</v>
       </c>
       <c r="M85">
         <v>95</v>
@@ -14952,7 +14916,7 @@
         <v>4</v>
       </c>
       <c r="O85" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -14963,7 +14927,7 @@
         <v>16</v>
       </c>
       <c r="C86">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -14990,7 +14954,7 @@
         <v>288000</v>
       </c>
       <c r="L86">
-        <v>271750</v>
+        <v>271500</v>
       </c>
       <c r="M86">
         <v>95</v>
@@ -14999,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="O86" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -15010,7 +14974,7 @@
         <v>16</v>
       </c>
       <c r="C87">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -15037,7 +15001,7 @@
         <v>288000</v>
       </c>
       <c r="L87">
-        <v>271250</v>
+        <v>271500</v>
       </c>
       <c r="M87">
         <v>95</v>
@@ -15046,7 +15010,7 @@
         <v>4</v>
       </c>
       <c r="O87" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -15057,7 +15021,7 @@
         <v>16</v>
       </c>
       <c r="C88">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -15084,7 +15048,7 @@
         <v>288000</v>
       </c>
       <c r="L88">
-        <v>271250</v>
+        <v>271500</v>
       </c>
       <c r="M88">
         <v>95</v>
@@ -15093,7 +15057,7 @@
         <v>4</v>
       </c>
       <c r="O88" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -15104,7 +15068,7 @@
         <v>16</v>
       </c>
       <c r="C89">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -15131,7 +15095,7 @@
         <v>288000</v>
       </c>
       <c r="L89">
-        <v>271000</v>
+        <v>271500</v>
       </c>
       <c r="M89">
         <v>95</v>
@@ -15140,7 +15104,7 @@
         <v>4</v>
       </c>
       <c r="O89" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -15151,7 +15115,7 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -15178,7 +15142,7 @@
         <v>288000</v>
       </c>
       <c r="L90">
-        <v>271000</v>
+        <v>271500</v>
       </c>
       <c r="M90">
         <v>95</v>
@@ -15187,7 +15151,7 @@
         <v>4</v>
       </c>
       <c r="O90" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -15198,7 +15162,7 @@
         <v>16</v>
       </c>
       <c r="C91">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -15225,7 +15189,7 @@
         <v>288000</v>
       </c>
       <c r="L91">
-        <v>271750</v>
+        <v>271500</v>
       </c>
       <c r="M91">
         <v>95</v>
@@ -15234,7 +15198,7 @@
         <v>4</v>
       </c>
       <c r="O91" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -15245,7 +15209,7 @@
         <v>16</v>
       </c>
       <c r="C92">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -15272,7 +15236,7 @@
         <v>288000</v>
       </c>
       <c r="L92">
-        <v>270845</v>
+        <v>271500</v>
       </c>
       <c r="M92">
         <v>95</v>
@@ -15281,7 +15245,7 @@
         <v>4</v>
       </c>
       <c r="O92" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -15292,7 +15256,7 @@
         <v>16</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -15319,7 +15283,7 @@
         <v>288000</v>
       </c>
       <c r="L93">
-        <v>270845</v>
+        <v>270850</v>
       </c>
       <c r="M93">
         <v>95</v>
@@ -15328,7 +15292,7 @@
         <v>4</v>
       </c>
       <c r="O93" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -15339,7 +15303,7 @@
         <v>16</v>
       </c>
       <c r="C94">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -15366,7 +15330,7 @@
         <v>288000</v>
       </c>
       <c r="L94">
-        <v>270727</v>
+        <v>270850</v>
       </c>
       <c r="M94">
         <v>95</v>
@@ -15375,7 +15339,7 @@
         <v>4</v>
       </c>
       <c r="O94" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -15386,7 +15350,7 @@
         <v>16</v>
       </c>
       <c r="C95">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -15413,7 +15377,7 @@
         <v>288000</v>
       </c>
       <c r="L95">
-        <v>271233</v>
+        <v>270850</v>
       </c>
       <c r="M95">
         <v>95</v>
@@ -15422,7 +15386,7 @@
         <v>4</v>
       </c>
       <c r="O95" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -15433,7 +15397,7 @@
         <v>16</v>
       </c>
       <c r="C96">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -15460,7 +15424,7 @@
         <v>288000</v>
       </c>
       <c r="L96">
-        <v>271233</v>
+        <v>270850</v>
       </c>
       <c r="M96">
         <v>95</v>
@@ -15469,7 +15433,7 @@
         <v>4</v>
       </c>
       <c r="O96" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -15480,7 +15444,7 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -15507,7 +15471,7 @@
         <v>288000</v>
       </c>
       <c r="L97">
-        <v>271233</v>
+        <v>270850</v>
       </c>
       <c r="M97">
         <v>95</v>
@@ -15516,7 +15480,7 @@
         <v>4</v>
       </c>
       <c r="O97" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -15527,7 +15491,7 @@
         <v>16</v>
       </c>
       <c r="C98">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -15554,7 +15518,7 @@
         <v>288000</v>
       </c>
       <c r="L98">
-        <v>271233</v>
+        <v>270850</v>
       </c>
       <c r="M98">
         <v>95</v>
@@ -15563,7 +15527,7 @@
         <v>4</v>
       </c>
       <c r="O98" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -15574,7 +15538,7 @@
         <v>16</v>
       </c>
       <c r="C99">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -15601,7 +15565,7 @@
         <v>288000</v>
       </c>
       <c r="L99">
-        <v>271233</v>
+        <v>270818</v>
       </c>
       <c r="M99">
         <v>95</v>
@@ -15610,7 +15574,7 @@
         <v>4</v>
       </c>
       <c r="O99" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -15621,7 +15585,7 @@
         <v>16</v>
       </c>
       <c r="C100">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -15648,7 +15612,7 @@
         <v>288000</v>
       </c>
       <c r="L100">
-        <v>271233</v>
+        <v>271426</v>
       </c>
       <c r="M100">
         <v>95</v>
@@ -15657,7 +15621,7 @@
         <v>4</v>
       </c>
       <c r="O100" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -15668,7 +15632,7 @@
         <v>16</v>
       </c>
       <c r="C101">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -15695,7 +15659,7 @@
         <v>288000</v>
       </c>
       <c r="L101">
-        <v>271233</v>
+        <v>271426</v>
       </c>
       <c r="M101">
         <v>95</v>
@@ -15704,7 +15668,7 @@
         <v>4</v>
       </c>
       <c r="O101" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -15715,7 +15679,7 @@
         <v>16</v>
       </c>
       <c r="C102">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -15742,7 +15706,7 @@
         <v>432000</v>
       </c>
       <c r="L102">
-        <v>409000</v>
+        <v>408000</v>
       </c>
       <c r="M102">
         <v>95</v>
@@ -15751,7 +15715,7 @@
         <v>4</v>
       </c>
       <c r="O102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -15762,7 +15726,7 @@
         <v>16</v>
       </c>
       <c r="C103">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -15789,7 +15753,7 @@
         <v>432000</v>
       </c>
       <c r="L103">
-        <v>407000</v>
+        <v>408000</v>
       </c>
       <c r="M103">
         <v>95</v>
@@ -15798,7 +15762,7 @@
         <v>4</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -15809,7 +15773,7 @@
         <v>16</v>
       </c>
       <c r="C104">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -15836,7 +15800,7 @@
         <v>432000</v>
       </c>
       <c r="L104">
-        <v>406250</v>
+        <v>408000</v>
       </c>
       <c r="M104">
         <v>95</v>
@@ -15845,7 +15809,7 @@
         <v>4</v>
       </c>
       <c r="O104" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -15856,7 +15820,7 @@
         <v>16</v>
       </c>
       <c r="C105">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -15883,7 +15847,7 @@
         <v>432000</v>
       </c>
       <c r="L105">
-        <v>406090</v>
+        <v>406764</v>
       </c>
       <c r="M105">
         <v>95</v>
@@ -15892,7 +15856,7 @@
         <v>4</v>
       </c>
       <c r="O105" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -15930,16 +15894,16 @@
         <v>432000</v>
       </c>
       <c r="L106">
-        <v>406083</v>
+        <v>158066</v>
       </c>
       <c r="M106">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="N106">
         <v>4</v>
       </c>
       <c r="O106" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -15950,7 +15914,7 @@
         <v>16</v>
       </c>
       <c r="C107">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -15977,7 +15941,7 @@
         <v>432000</v>
       </c>
       <c r="L107">
-        <v>406083</v>
+        <v>406250</v>
       </c>
       <c r="M107">
         <v>95</v>
@@ -15986,7 +15950,7 @@
         <v>4</v>
       </c>
       <c r="O107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -16024,7 +15988,7 @@
         <v>432000</v>
       </c>
       <c r="L108">
-        <v>406083</v>
+        <v>406250</v>
       </c>
       <c r="M108">
         <v>95</v>
@@ -16033,7 +15997,7 @@
         <v>4</v>
       </c>
       <c r="O108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -16071,7 +16035,7 @@
         <v>432000</v>
       </c>
       <c r="L109">
-        <v>406560</v>
+        <v>406250</v>
       </c>
       <c r="M109">
         <v>95</v>
@@ -16080,7 +16044,7 @@
         <v>4</v>
       </c>
       <c r="O109" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -16091,7 +16055,7 @@
         <v>16</v>
       </c>
       <c r="C110">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -16118,7 +16082,7 @@
         <v>432000</v>
       </c>
       <c r="L110">
-        <v>406506</v>
+        <v>406250</v>
       </c>
       <c r="M110">
         <v>95</v>
@@ -16138,7 +16102,7 @@
         <v>16</v>
       </c>
       <c r="C111">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -16165,7 +16129,7 @@
         <v>432000</v>
       </c>
       <c r="L111">
-        <v>406506</v>
+        <v>406250</v>
       </c>
       <c r="M111">
         <v>95</v>
@@ -16185,7 +16149,7 @@
         <v>16</v>
       </c>
       <c r="C112">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -16212,7 +16176,7 @@
         <v>432000</v>
       </c>
       <c r="L112">
-        <v>406506</v>
+        <v>406250</v>
       </c>
       <c r="M112">
         <v>95</v>
@@ -16232,7 +16196,7 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -16259,7 +16223,7 @@
         <v>432000</v>
       </c>
       <c r="L113">
-        <v>406506</v>
+        <v>406250</v>
       </c>
       <c r="M113">
         <v>95</v>
@@ -16279,7 +16243,7 @@
         <v>16</v>
       </c>
       <c r="C114">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -16306,7 +16270,7 @@
         <v>432000</v>
       </c>
       <c r="L114">
-        <v>406194</v>
+        <v>406250</v>
       </c>
       <c r="M114">
         <v>95</v>
@@ -16315,7 +16279,7 @@
         <v>4</v>
       </c>
       <c r="O114" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -16326,7 +16290,7 @@
         <v>16</v>
       </c>
       <c r="C115">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -16353,7 +16317,7 @@
         <v>432000</v>
       </c>
       <c r="L115">
-        <v>408000</v>
+        <v>406250</v>
       </c>
       <c r="M115">
         <v>95</v>
@@ -16362,7 +16326,7 @@
         <v>4</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -16373,7 +16337,7 @@
         <v>16</v>
       </c>
       <c r="C116">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -16400,7 +16364,7 @@
         <v>432000</v>
       </c>
       <c r="L116">
-        <v>407500</v>
+        <v>406250</v>
       </c>
       <c r="M116">
         <v>95</v>
@@ -16409,7 +16373,7 @@
         <v>4</v>
       </c>
       <c r="O116" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -16420,7 +16384,7 @@
         <v>16</v>
       </c>
       <c r="C117">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -16447,7 +16411,7 @@
         <v>432000</v>
       </c>
       <c r="L117">
-        <v>407335</v>
+        <v>406250</v>
       </c>
       <c r="M117">
         <v>95</v>
@@ -16456,7 +16420,7 @@
         <v>4</v>
       </c>
       <c r="O117" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -16467,7 +16431,7 @@
         <v>16</v>
       </c>
       <c r="C118">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -16494,7 +16458,7 @@
         <v>432000</v>
       </c>
       <c r="L118">
-        <v>407335</v>
+        <v>406250</v>
       </c>
       <c r="M118">
         <v>95</v>
@@ -16503,7 +16467,7 @@
         <v>4</v>
       </c>
       <c r="O118" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -16514,7 +16478,7 @@
         <v>16</v>
       </c>
       <c r="C119">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -16541,7 +16505,7 @@
         <v>432000</v>
       </c>
       <c r="L119">
-        <v>407335</v>
+        <v>406250</v>
       </c>
       <c r="M119">
         <v>95</v>
@@ -16550,7 +16514,7 @@
         <v>4</v>
       </c>
       <c r="O119" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -16561,7 +16525,7 @@
         <v>16</v>
       </c>
       <c r="C120">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -16588,7 +16552,7 @@
         <v>432000</v>
       </c>
       <c r="L120">
-        <v>406275</v>
+        <v>406500</v>
       </c>
       <c r="M120">
         <v>95</v>
@@ -16597,7 +16561,7 @@
         <v>4</v>
       </c>
       <c r="O120" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -16605,7 +16569,7 @@
         <v>5120</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -16644,7 +16608,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -16652,7 +16616,7 @@
         <v>5121</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -16691,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -16699,7 +16663,7 @@
         <v>5122</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -16738,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -16746,7 +16710,7 @@
         <v>5123</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -16785,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -16793,7 +16757,7 @@
         <v>5124</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -16832,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -16840,7 +16804,7 @@
         <v>5125</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -16879,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -16887,7 +16851,7 @@
         <v>5126</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -16926,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -16934,7 +16898,7 @@
         <v>5127</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -16973,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -16981,7 +16945,7 @@
         <v>5128</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -17020,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -17028,7 +16992,7 @@
         <v>5129</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -17067,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -17075,7 +17039,7 @@
         <v>5130</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -17114,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -17122,7 +17086,7 @@
         <v>5131</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -17161,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -17169,7 +17133,7 @@
         <v>5132</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -17208,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -17216,7 +17180,7 @@
         <v>5133</v>
       </c>
       <c r="B134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -17255,7 +17219,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -17263,7 +17227,7 @@
         <v>5134</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -17302,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -17310,7 +17274,7 @@
         <v>5135</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -17349,7 +17313,7 @@
         <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -17357,7 +17321,7 @@
         <v>5136</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -17396,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -17404,7 +17368,7 @@
         <v>5137</v>
       </c>
       <c r="B138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -17443,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="O138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -17451,7 +17415,7 @@
         <v>5138</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -17490,7 +17454,7 @@
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -17498,7 +17462,7 @@
         <v>5139</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -17537,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -17545,7 +17509,7 @@
         <v>5140</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -17584,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="O141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -17592,7 +17556,7 @@
         <v>5141</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -17631,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -17639,7 +17603,7 @@
         <v>5142</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -17678,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="O143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -17686,7 +17650,7 @@
         <v>5143</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -17725,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="O144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -17733,7 +17697,7 @@
         <v>5144</v>
       </c>
       <c r="B145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -17772,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="O145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -17780,7 +17744,7 @@
         <v>5145</v>
       </c>
       <c r="B146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -17819,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -17827,7 +17791,7 @@
         <v>5146</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -17866,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -17874,7 +17838,7 @@
         <v>5147</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -17913,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -17921,7 +17885,7 @@
         <v>5148</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -17960,7 +17924,7 @@
         <v>0</v>
       </c>
       <c r="O149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -17968,7 +17932,7 @@
         <v>5149</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -18007,7 +17971,7 @@
         <v>0</v>
       </c>
       <c r="O150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -18015,7 +17979,7 @@
         <v>5150</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -18054,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="O151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -18062,7 +18026,7 @@
         <v>5151</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -18101,7 +18065,7 @@
         <v>0</v>
       </c>
       <c r="O152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -18109,7 +18073,7 @@
         <v>5152</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -18148,7 +18112,7 @@
         <v>0</v>
       </c>
       <c r="O153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -18156,7 +18120,7 @@
         <v>5153</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -18195,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -18203,7 +18167,7 @@
         <v>5154</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -18242,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -18250,7 +18214,7 @@
         <v>5155</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -18289,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -18297,7 +18261,7 @@
         <v>5156</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -18336,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -18344,7 +18308,7 @@
         <v>5157</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -18383,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="O158" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -18391,7 +18355,7 @@
         <v>5158</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -18430,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="O159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -18438,7 +18402,7 @@
         <v>5159</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -18477,7 +18441,7 @@
         <v>0</v>
       </c>
       <c r="O160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -18485,7 +18449,7 @@
         <v>5160</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -18524,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -18532,7 +18496,7 @@
         <v>5161</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -18571,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="O162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -18579,7 +18543,7 @@
         <v>5162</v>
       </c>
       <c r="B163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -18618,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -18626,7 +18590,7 @@
         <v>5163</v>
       </c>
       <c r="B164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -18665,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -18673,7 +18637,7 @@
         <v>5164</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -18712,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -18720,7 +18684,7 @@
         <v>5165</v>
       </c>
       <c r="B166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -18759,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -18767,7 +18731,7 @@
         <v>5166</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -18806,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -18814,7 +18778,7 @@
         <v>5167</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -18853,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -18861,7 +18825,7 @@
         <v>5168</v>
       </c>
       <c r="B169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -18900,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -18908,7 +18872,7 @@
         <v>5169</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -18947,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -18955,7 +18919,7 @@
         <v>5170</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -18994,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -19002,7 +18966,7 @@
         <v>5171</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -19041,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -19049,7 +19013,7 @@
         <v>5172</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -19088,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -19096,7 +19060,7 @@
         <v>5173</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -19135,7 +19099,7 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -19143,7 +19107,7 @@
         <v>5174</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -19182,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -19190,7 +19154,7 @@
         <v>5175</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -19229,7 +19193,7 @@
         <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -19237,7 +19201,7 @@
         <v>5176</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -19276,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="O177" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -19284,7 +19248,7 @@
         <v>5177</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -19323,7 +19287,7 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -19331,7 +19295,7 @@
         <v>5178</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -19370,7 +19334,7 @@
         <v>0</v>
       </c>
       <c r="O179" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -19378,7 +19342,7 @@
         <v>5179</v>
       </c>
       <c r="B180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -19417,7 +19381,7 @@
         <v>0</v>
       </c>
       <c r="O180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -19425,7 +19389,7 @@
         <v>5180</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -19464,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -19472,7 +19436,7 @@
         <v>5181</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -19511,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -19519,7 +19483,7 @@
         <v>5182</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -19558,7 +19522,7 @@
         <v>0</v>
       </c>
       <c r="O183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -19566,7 +19530,7 @@
         <v>5183</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -19605,7 +19569,7 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -19613,7 +19577,7 @@
         <v>5184</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -19652,7 +19616,7 @@
         <v>0</v>
       </c>
       <c r="O185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -19660,7 +19624,7 @@
         <v>5185</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -19699,7 +19663,7 @@
         <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -19707,7 +19671,7 @@
         <v>5186</v>
       </c>
       <c r="B187" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -19746,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="O187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -19754,7 +19718,7 @@
         <v>5187</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -19793,7 +19757,7 @@
         <v>0</v>
       </c>
       <c r="O188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -19801,7 +19765,7 @@
         <v>5188</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -19840,7 +19804,7 @@
         <v>0</v>
       </c>
       <c r="O189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -19848,7 +19812,7 @@
         <v>5189</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -19887,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="O190" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -19895,7 +19859,7 @@
         <v>5190</v>
       </c>
       <c r="B191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -19934,7 +19898,7 @@
         <v>0</v>
       </c>
       <c r="O191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -19942,7 +19906,7 @@
         <v>5191</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -19981,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="O192" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -19989,7 +19953,7 @@
         <v>5192</v>
       </c>
       <c r="B193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -20028,7 +19992,7 @@
         <v>0</v>
       </c>
       <c r="O193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -20036,7 +20000,7 @@
         <v>5193</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -20075,7 +20039,7 @@
         <v>0</v>
       </c>
       <c r="O194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -20083,7 +20047,7 @@
         <v>5194</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -20122,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -20130,7 +20094,7 @@
         <v>5195</v>
       </c>
       <c r="B196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -20169,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="O196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -20177,7 +20141,7 @@
         <v>5196</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -20216,7 +20180,7 @@
         <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -20224,7 +20188,7 @@
         <v>5197</v>
       </c>
       <c r="B198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -20263,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="O198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -20271,7 +20235,7 @@
         <v>5198</v>
       </c>
       <c r="B199" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -20310,7 +20274,7 @@
         <v>0</v>
       </c>
       <c r="O199" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -20318,7 +20282,7 @@
         <v>5199</v>
       </c>
       <c r="B200" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -20357,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="O200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -20365,7 +20329,7 @@
         <v>5200</v>
       </c>
       <c r="B201" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -20404,7 +20368,7 @@
         <v>0</v>
       </c>
       <c r="O201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -20433,22 +20397,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -20456,22 +20420,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -20479,22 +20443,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -20502,13 +20466,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -20516,7 +20480,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -20524,7 +20488,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -20532,19 +20496,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -20552,10 +20516,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -20563,7 +20527,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -20581,22 +20545,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -20604,10 +20568,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -20630,16 +20594,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -20686,10 +20650,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -20697,7 +20661,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -20705,7 +20669,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -20713,7 +20677,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -20721,15 +20685,15 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Warehouse Manager/Database/Components.xlsx
+++ b/Warehouse Manager/Database/Components.xlsx
@@ -727,11 +727,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5001</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -781,11 +781,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5002</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 25}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Hammer', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -835,11 +835,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5003</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 29}, {'Name': 'Measuring Tape', 'Quantity': 27}, {'Name': 'Level', 'Quantity': 28}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -889,17 +889,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5004</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -943,17 +943,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5007</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -997,17 +997,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5061</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 25}, {'Name': 'Screw Assortment Kit', 'Quantity': 27}, {'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5005</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -1159,17 +1159,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5011</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 25}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Hammer', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1267,17 +1267,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5010</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5009</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5063</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Coffee Mug', 'Quantity': 20}, {'Name': 'Resistance Bands', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1483,17 +1483,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5012</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1645,17 +1645,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5014</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -1699,17 +1699,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5015</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -1753,17 +1753,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5064</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Coffee Mug', 'Quantity': 20}, {'Name': 'Resistance Bands', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5021</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -1861,11 +1861,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5022</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -1915,11 +1915,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>5023</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Power Drill', 'Quantity': 20}, {'Name': 'Hammer', 'Quantity': 20}]</t>
         </is>
       </c>
     </row>
@@ -1969,17 +1969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5029</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -2023,17 +2023,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5035</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 14}, {'Name': 'Slow Cooker', 'Quantity': 7}, {'Name': 'Cutting Board', 'Quantity': 11}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -2077,17 +2077,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>5081</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Paint Brush Set', 'Quantity': 12}, {'Name': 'Slow Cooker', 'Quantity': 7}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -2131,17 +2131,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5086</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>7</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -2185,17 +2185,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5024</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>8</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -2239,17 +2239,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5025</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>9</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>2</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -2293,17 +2293,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5090</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>10</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 38}, {'Name': 'Screw Assortment Kit', 'Quantity': 39}, {'Name': 'Soccer Ball', 'Quantity': 4}, {'Name': 'Resistance Bands', 'Quantity': 38}]</t>
         </is>
       </c>
     </row>
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>5030</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>11</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>12</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -2455,17 +2455,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5082</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>13</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Paint Brush Set', 'Quantity': 12}, {'Name': 'Slow Cooker', 'Quantity': 7}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5087</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
         <v>14</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
         <v>2</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -2563,17 +2563,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>5026</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
         <v>15</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>2</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -2617,17 +2617,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>5027</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>16</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
         <v>17</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>2</v>
@@ -2725,17 +2725,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>5031</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>18</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>2</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>19</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
@@ -2833,17 +2833,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5085</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
         <v>20</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 1}, {'Name': 'Soccer Ball', 'Quantity': 14}, {'Name': 'Coffee Mug', 'Quantity': 14}, {'Name': 'Mixing Bowl Set', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -2887,11 +2887,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5041</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
         <v>3</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -2941,11 +2941,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>5043</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>3</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 21}, {'Name': 'Hammer', 'Quantity': 21}, {'Name': 'Toolbox', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5045</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
         <v>3</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -3049,17 +3049,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
         <v>4</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>3</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>5105</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
         <v>5</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>3</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 15}, {'Name': 'Blender', 'Quantity': 15}, {'Name': 'Mixing Bowl Set', 'Quantity': 15}, {'Name': 'Knife Set', 'Quantity': 15}]</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>5111</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>6</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
         <v>3</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -3211,17 +3211,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>5056</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>7</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>3</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>5042</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="n">
         <v>8</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>3</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -3319,17 +3319,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>5047</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
         <v>3</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 21}, {'Name': 'Hammer', 'Quantity': 21}, {'Name': 'Toolbox', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -3373,17 +3373,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>5055</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
         <v>10</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>3</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -3427,17 +3427,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>5048</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>11</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
         <v>3</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>5112</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>12</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 9}, {'Name': 'Blender', 'Quantity': 8}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -3535,17 +3535,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>5116</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
         <v>13</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>3</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 20}, {'Name': 'Yoga Block', 'Quantity': 10}, {'Name': 'Resistance Bands', 'Quantity': 59}, {'Name': 'Meditation Cushion', 'Quantity': 15}]</t>
         </is>
       </c>
     </row>
@@ -3589,17 +3589,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>5058</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>14</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
         <v>3</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -3643,17 +3643,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>5044</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>15</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
         <v>3</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -3697,17 +3697,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>5108</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>16</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
         <v>3</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>17</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>3</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -3805,17 +3805,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>5052</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>18</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
         <v>3</v>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -3859,17 +3859,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>5114</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
         <v>19</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
         <v>3</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 16}, {'Name': 'Blender', 'Quantity': 3}, {'Name': 'Slow Cooker', 'Quantity': 10}, {'Name': 'Mixing Bowl Set', 'Quantity': 12}]</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>20</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>3</v>
@@ -3967,11 +3967,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5006</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 32}, {'Name': 'Screwdriver Set', 'Quantity': 29}, {'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -4021,11 +4021,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}, {'Name': 'Hammer', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>5062</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Coffee Mug', 'Quantity': 20}, {'Name': 'Resistance Bands', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>4</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -4183,17 +4183,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>5020</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
         <v>5</v>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
         <v>6</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>7</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -4345,17 +4345,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5013</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
         <v>8</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 32}, {'Name': 'Screwdriver Set', 'Quantity': 29}, {'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
         <v>10</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>11</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>12</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>13</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>14</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -4723,17 +4723,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>5017</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
         <v>15</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 32}, {'Name': 'Screwdriver Set', 'Quantity': 29}, {'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>16</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>17</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
         <v>18</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>5018</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
         <v>19</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>20</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -5047,11 +5047,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5032</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
         <v>2</v>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 30}, {'Name': 'Cutting Board', 'Quantity': 29}, {'Name': 'Mixing Bowl Set', 'Quantity': 26}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -5101,11 +5101,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>5039</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K83" t="n">
         <v>2</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 44}, {'Name': 'Measuring Tape', 'Quantity': 44}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 43}]</t>
         </is>
       </c>
     </row>
@@ -5155,11 +5155,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>5083</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
         <v>2</v>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 9}, {'Name': 'Soccer Ball', 'Quantity': 8}, {'Name': 'Coffee Mug', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 8}]</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
         <v>4</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>2</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>5</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>2</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>6</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>2</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>7</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
         <v>2</v>
@@ -5425,17 +5425,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>5036</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
         <v>8</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 45}, {'Name': 'Level', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 44}]</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>2</v>
@@ -5533,17 +5533,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>5084</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
         <v>10</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K91" t="n">
         <v>2</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 9}, {'Name': 'Soccer Ball', 'Quantity': 8}, {'Name': 'Coffee Mug', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 8}]</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
         <v>11</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>2</v>
@@ -5641,17 +5641,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5037</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>12</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
         <v>2</v>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 44}, {'Name': 'Measuring Tape', 'Quantity': 44}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 43}]</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
         <v>13</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>2</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>14</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>2</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>15</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>2</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>16</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>17</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>2</v>
@@ -5965,17 +5965,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>5088</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>18</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
         <v>2</v>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6019,17 +6019,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>5028</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
         <v>19</v>
@@ -6044,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
         <v>20</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>2</v>
@@ -6127,11 +6127,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>5050</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
         <v>3</v>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6181,11 +6181,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K103" t="n">
         <v>3</v>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 9}, {'Name': 'Blender', 'Quantity': 8}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -6235,11 +6235,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>5113</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
         <v>3</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 16}, {'Name': 'Soccer Ball', 'Quantity': 15}, {'Name': 'Yoga Mat', 'Quantity': 14}, {'Name': 'Resistance Bands', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -6289,17 +6289,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>5102</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
         <v>4</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
         <v>3</v>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6343,17 +6343,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>5115</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
         <v>5</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K106" t="n">
         <v>3</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6397,17 +6397,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>5107</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
         <v>6</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
         <v>3</v>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
         <v>7</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>3</v>
@@ -6505,17 +6505,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>5053</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
         <v>8</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K109" t="n">
         <v>3</v>
@@ -6549,7 +6549,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>3</v>
@@ -6623,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
         <v>10</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>3</v>
@@ -6667,17 +6667,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>5103</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>11</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K112" t="n">
         <v>3</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
         <v>12</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>3</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
         <v>13</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>3</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
         <v>14</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
         <v>3</v>
@@ -6883,17 +6883,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>5057</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
         <v>15</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K116" t="n">
         <v>3</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
         <v>16</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>3</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
         <v>17</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K118" t="n">
         <v>3</v>
@@ -7045,17 +7045,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>5060</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>18</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K119" t="n">
         <v>3</v>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 14}, {'Name': 'Blender', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Mixing Bowl Set', 'Quantity': 12}]</t>
         </is>
       </c>
     </row>
@@ -7099,17 +7099,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>5049</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
         <v>19</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K120" t="n">
         <v>3</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -7153,17 +7153,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>5109</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
         <v>20</v>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K121" t="n">
         <v>3</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>1</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
         <v>1</v>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
         <v>4</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
         <v>5</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="n">
         <v>6</v>
@@ -7541,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
         <v>7</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
         <v>8</v>
@@ -7649,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F130" t="n">
         <v>9</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
         <v>10</v>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
         <v>11</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>12</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
         <v>13</v>
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
         <v>14</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
         <v>15</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" t="n">
         <v>16</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
         <v>1</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
         <v>17</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
         <v>1</v>
@@ -8125,17 +8125,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>5065</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>18</v>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K139" t="n">
         <v>1</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 23}, {'Name': 'Screw Assortment Kit', 'Quantity': 23}, {'Name': 'Coffee Mug', 'Quantity': 23}, {'Name': 'Resistance Bands', 'Quantity': 7}]</t>
         </is>
       </c>
     </row>
@@ -8179,17 +8179,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>5019</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
         <v>19</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K140" t="n">
         <v>1</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -8233,17 +8233,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>5016</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>20</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K141" t="n">
         <v>1</v>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
         <v>2</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>2</v>
@@ -8420,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>2</v>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
         <v>4</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K145" t="n">
         <v>2</v>
@@ -8503,17 +8503,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
         <v>5</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K146" t="n">
         <v>2</v>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 9}, {'Name': 'Measuring Tape', 'Quantity': 54}, {'Name': 'Screw Assortment Kit', 'Quantity': 56}, {'Name': 'Hammer', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F147" t="n">
         <v>6</v>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K147" t="n">
         <v>2</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
         <v>7</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K148" t="n">
         <v>2</v>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F149" t="n">
         <v>8</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
         <v>2</v>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F150" t="n">
         <v>9</v>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K150" t="n">
         <v>2</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
         <v>10</v>
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F152" t="n">
         <v>11</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K152" t="n">
         <v>2</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F153" t="n">
         <v>12</v>
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
         <v>2</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F154" t="n">
         <v>13</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
         <v>2</v>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F155" t="n">
         <v>14</v>
@@ -9053,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F156" t="n">
         <v>15</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K156" t="n">
         <v>2</v>
@@ -9097,17 +9097,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>5038</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F157" t="n">
         <v>16</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K157" t="n">
         <v>2</v>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 44}, {'Name': 'Measuring Tape', 'Quantity': 44}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 43}]</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F158" t="n">
         <v>17</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
         <v>2</v>
@@ -9205,17 +9205,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>5033</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
         <v>18</v>
@@ -9230,7 +9230,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="K159" t="n">
         <v>2</v>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 84}, {'Name': 'Screwdriver Set', 'Quantity': 3}, {'Name': 'Screw Assortment Kit', 'Quantity': 83}, {'Name': 'Hammer', 'Quantity': 84}]</t>
         </is>
       </c>
     </row>
@@ -9259,17 +9259,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>5089</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160" t="n">
         <v>19</v>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K160" t="n">
         <v>2</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -9313,17 +9313,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>5034</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F161" t="n">
         <v>20</v>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K161" t="n">
         <v>2</v>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 57}, {'Name': 'Level', 'Quantity': 58}, {'Name': 'Sanding Block', 'Quantity': 59}, {'Name': 'Paint Brush Set', 'Quantity': 59}]</t>
         </is>
       </c>
     </row>
@@ -9367,11 +9367,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>5117</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K162" t="n">
         <v>3</v>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 11}, {'Name': 'Coffee Mug', 'Quantity': 13}, {'Name': 'Slow Cooker', 'Quantity': 9}, {'Name': 'Mixing Bowl Set', 'Quantity': 6}]</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K163" t="n">
         <v>3</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
         <v>3</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F165" t="n">
         <v>4</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
         <v>3</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F166" t="n">
         <v>5</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K166" t="n">
         <v>3</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F167" t="n">
         <v>6</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K167" t="n">
         <v>3</v>
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
         <v>7</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
         <v>8</v>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F170" t="n">
         <v>9</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
         <v>3</v>
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
         <v>10</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
         <v>3</v>
@@ -9917,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
         <v>11</v>
@@ -9932,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
         <v>3</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F173" t="n">
         <v>12</v>
@@ -9986,7 +9986,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
         <v>3</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F174" t="n">
         <v>13</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
         <v>3</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>14</v>
@@ -10123,17 +10123,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>5104</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F176" t="n">
         <v>15</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K176" t="n">
         <v>3</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>16</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K177" t="n">
         <v>3</v>
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F178" t="n">
         <v>17</v>
@@ -10285,17 +10285,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>5106</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F179" t="n">
         <v>18</v>
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K179" t="n">
         <v>3</v>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -10339,17 +10339,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>5054</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F180" t="n">
         <v>19</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K180" t="n">
         <v>3</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F181" t="n">
         <v>20</v>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K181" t="n">
         <v>3</v>
@@ -10472,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K182" t="n">
         <v>3</v>
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F185" t="n">
         <v>4</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186" t="n">
         <v>5</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F187" t="n">
         <v>6</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188" t="n">
         <v>7</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F189" t="n">
         <v>8</v>
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
         <v>3</v>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F190" t="n">
         <v>9</v>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F191" t="n">
         <v>10</v>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F192" t="n">
         <v>11</v>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F193" t="n">
         <v>12</v>
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F194" t="n">
         <v>13</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F195" t="n">
         <v>14</v>
@@ -11213,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F196" t="n">
         <v>15</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F197" t="n">
         <v>16</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F198" t="n">
         <v>17</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K198" t="n">
         <v>3</v>
@@ -11365,17 +11365,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>5059</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F199" t="n">
         <v>18</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K199" t="n">
         <v>3</v>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F200" t="n">
         <v>19</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>3</v>
@@ -11473,17 +11473,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>5051</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201" t="n">
         <v>20</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="K201" t="n">
         <v>3</v>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 46}, {'Name': 'Screw Assortment Kit', 'Quantity': 45}, {'Name': 'Power Drill', 'Quantity': 20}, {'Name': 'Toolbox', 'Quantity': 6}]</t>
         </is>
       </c>
     </row>
@@ -11623,11 +11623,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -11654,17 +11654,17 @@
         <v>144000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>136300</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -11674,11 +11674,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -11705,17 +11705,17 @@
         <v>144000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135500</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 25}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Hammer', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -11725,11 +11725,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -11756,17 +11756,17 @@
         <v>144000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>135520</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 29}, {'Name': 'Measuring Tape', 'Quantity': 27}, {'Name': 'Level', 'Quantity': 28}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -11776,11 +11776,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -11807,17 +11807,17 @@
         <v>144000</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135480</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -11827,11 +11827,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -11858,17 +11858,17 @@
         <v>144000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>136300</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -11878,11 +11878,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -11909,17 +11909,17 @@
         <v>144000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 32}, {'Name': 'Screwdriver Set', 'Quantity': 29}, {'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -11929,11 +11929,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -11960,17 +11960,17 @@
         <v>144000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -11980,11 +11980,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -12011,17 +12011,17 @@
         <v>144000</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135480</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}, {'Name': 'Hammer', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -12031,11 +12031,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -12062,17 +12062,17 @@
         <v>144000</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -12082,11 +12082,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -12113,17 +12113,17 @@
         <v>144000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>135480</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -12133,11 +12133,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -12164,17 +12164,17 @@
         <v>144000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>135500</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 25}, {'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Hammer', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -12184,11 +12184,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -12215,17 +12215,17 @@
         <v>144000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>136300</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -12235,11 +12235,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -12266,17 +12266,17 @@
         <v>144000</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 32}, {'Name': 'Screwdriver Set', 'Quantity': 29}, {'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -12286,11 +12286,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -12317,17 +12317,17 @@
         <v>144000</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>135480</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -12337,11 +12337,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -12368,17 +12368,17 @@
         <v>144000</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -12388,11 +12388,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -12419,17 +12419,17 @@
         <v>144000</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -12439,11 +12439,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -12470,17 +12470,17 @@
         <v>144000</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>135400</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 32}, {'Name': 'Screwdriver Set', 'Quantity': 29}, {'Name': 'Screw Assortment Kit', 'Quantity': 29}, {'Name': 'Hammer', 'Quantity': 28}]</t>
         </is>
       </c>
     </row>
@@ -12490,11 +12490,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -12521,17 +12521,17 @@
         <v>144000</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>136300</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Level', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 29}, {'Name': 'Paint Brush Set', 'Quantity': 29}]</t>
         </is>
       </c>
     </row>
@@ -12541,11 +12541,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -12572,17 +12572,17 @@
         <v>144000</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>135480</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 27}, {'Name': 'Screwdriver Set', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 21}]</t>
         </is>
       </c>
     </row>
@@ -12592,11 +12592,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -12623,17 +12623,17 @@
         <v>144000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>135000</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 18}, {'Name': 'Screwdriver Set', 'Quantity': 18}, {'Name': 'Screw Assortment Kit', 'Quantity': 18}, {'Name': 'Hammer', 'Quantity': 18}]</t>
         </is>
       </c>
     </row>
@@ -12643,11 +12643,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -12674,17 +12674,17 @@
         <v>288000</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>271010</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -12694,11 +12694,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -12725,17 +12725,17 @@
         <v>288000</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>271020</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -12745,11 +12745,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -12776,17 +12776,17 @@
         <v>288000</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>271000</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 22}, {'Name': 'Screw Assortment Kit', 'Quantity': 22}, {'Name': 'Power Drill', 'Quantity': 20}, {'Name': 'Hammer', 'Quantity': 20}]</t>
         </is>
       </c>
     </row>
@@ -12796,11 +12796,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -12827,17 +12827,17 @@
         <v>288000</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>271010</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -12847,11 +12847,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -12878,17 +12878,17 @@
         <v>288000</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>271020</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -12898,11 +12898,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -12929,17 +12929,17 @@
         <v>288000</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>271010</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -12949,11 +12949,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -12980,17 +12980,17 @@
         <v>288000</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>271020</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 9}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -13000,11 +13000,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -13031,17 +13031,17 @@
         <v>288000</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>271010</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 6}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Slow Cooker', 'Quantity': 5}, {'Name': 'Knife Set', 'Quantity': 4}]</t>
         </is>
       </c>
     </row>
@@ -13051,11 +13051,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -13082,17 +13082,17 @@
         <v>288000</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>271060</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -13133,17 +13133,17 @@
         <v>288000</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>271060</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -13153,11 +13153,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -13184,17 +13184,17 @@
         <v>288000</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>271060</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Cutting Board', 'Quantity': 10}, {'Name': 'Knife Set', 'Quantity': 11}]</t>
         </is>
       </c>
     </row>
@@ -13204,11 +13204,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -13235,17 +13235,17 @@
         <v>288000</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>270860</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 30}, {'Name': 'Cutting Board', 'Quantity': 29}, {'Name': 'Mixing Bowl Set', 'Quantity': 26}, {'Name': 'Knife Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -13255,11 +13255,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -13286,17 +13286,17 @@
         <v>288000</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>271800</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 84}, {'Name': 'Screwdriver Set', 'Quantity': 3}, {'Name': 'Screw Assortment Kit', 'Quantity': 83}, {'Name': 'Hammer', 'Quantity': 84}]</t>
         </is>
       </c>
     </row>
@@ -13306,11 +13306,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -13337,17 +13337,17 @@
         <v>288000</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>271060</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 57}, {'Name': 'Level', 'Quantity': 58}, {'Name': 'Sanding Block', 'Quantity': 59}, {'Name': 'Paint Brush Set', 'Quantity': 59}]</t>
         </is>
       </c>
     </row>
@@ -13357,11 +13357,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -13388,17 +13388,17 @@
         <v>288000</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>271230</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 14}, {'Name': 'Slow Cooker', 'Quantity': 7}, {'Name': 'Cutting Board', 'Quantity': 11}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -13408,11 +13408,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -13439,17 +13439,17 @@
         <v>288000</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>272040</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 45}, {'Name': 'Level', 'Quantity': 21}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 44}]</t>
         </is>
       </c>
     </row>
@@ -13459,11 +13459,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -13490,17 +13490,17 @@
         <v>288000</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>271300</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 44}, {'Name': 'Measuring Tape', 'Quantity': 44}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 43}]</t>
         </is>
       </c>
     </row>
@@ -13510,11 +13510,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -13541,17 +13541,17 @@
         <v>288000</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>271300</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 44}, {'Name': 'Measuring Tape', 'Quantity': 44}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 43}]</t>
         </is>
       </c>
     </row>
@@ -13561,11 +13561,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -13592,17 +13592,17 @@
         <v>288000</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>271300</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 44}, {'Name': 'Measuring Tape', 'Quantity': 44}, {'Name': 'Screw Assortment Kit', 'Quantity': 44}, {'Name': 'Hammer', 'Quantity': 43}]</t>
         </is>
       </c>
     </row>
@@ -13612,11 +13612,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -13643,17 +13643,17 @@
         <v>288000</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>271800</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Utility Knife', 'Quantity': 9}, {'Name': 'Measuring Tape', 'Quantity': 54}, {'Name': 'Screw Assortment Kit', 'Quantity': 56}, {'Name': 'Hammer', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -13663,11 +13663,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -13694,17 +13694,17 @@
         <v>432000</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>406250</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -13714,11 +13714,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -13745,17 +13745,17 @@
         <v>432000</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>406250</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -13765,11 +13765,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -13796,17 +13796,17 @@
         <v>432000</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>406540</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 21}, {'Name': 'Hammer', 'Quantity': 21}, {'Name': 'Toolbox', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -13816,11 +13816,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -13847,17 +13847,17 @@
         <v>432000</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>406250</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -13867,11 +13867,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -13898,17 +13898,17 @@
         <v>432000</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>406725</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -13918,11 +13918,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -13949,17 +13949,17 @@
         <v>432000</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -13969,11 +13969,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -14000,17 +14000,17 @@
         <v>432000</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>406540</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 22}, {'Name': 'Level', 'Quantity': 21}, {'Name': 'Hammer', 'Quantity': 21}, {'Name': 'Toolbox', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -14020,11 +14020,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -14051,17 +14051,17 @@
         <v>432000</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -14071,11 +14071,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -14102,17 +14102,17 @@
         <v>432000</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>406250</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Power Drill', 'Quantity': 15}, {'Name': 'Toolbox', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -14122,11 +14122,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -14153,17 +14153,17 @@
         <v>432000</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -14173,11 +14173,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -14204,17 +14204,17 @@
         <v>432000</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>407500</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Screwdriver Set', 'Quantity': 46}, {'Name': 'Screw Assortment Kit', 'Quantity': 45}, {'Name': 'Power Drill', 'Quantity': 20}, {'Name': 'Toolbox', 'Quantity': 6}]</t>
         </is>
       </c>
     </row>
@@ -14224,11 +14224,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -14255,17 +14255,17 @@
         <v>432000</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -14275,11 +14275,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -14306,17 +14306,17 @@
         <v>432000</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -14326,11 +14326,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -14357,17 +14357,17 @@
         <v>432000</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -14377,11 +14377,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -14408,17 +14408,17 @@
         <v>432000</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>406725</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -14428,11 +14428,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -14459,17 +14459,17 @@
         <v>432000</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -14479,11 +14479,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -14510,17 +14510,17 @@
         <v>432000</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -14530,11 +14530,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -14561,17 +14561,17 @@
         <v>432000</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>407400</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 11}, {'Name': 'Blender', 'Quantity': 9}, {'Name': 'Coffee Maker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -14581,11 +14581,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -14612,17 +14612,17 @@
         <v>432000</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -14632,11 +14632,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -14663,17 +14663,17 @@
         <v>432000</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>406560</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 14}, {'Name': 'Blender', 'Quantity': 12}, {'Name': 'Coffee Maker', 'Quantity': 5}, {'Name': 'Mixing Bowl Set', 'Quantity': 12}]</t>
         </is>
       </c>
     </row>
@@ -14683,11 +14683,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -14714,17 +14714,17 @@
         <v>144000</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>134000</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 29}, {'Name': 'Sanding Block', 'Quantity': 25}, {'Name': 'Screw Assortment Kit', 'Quantity': 27}, {'Name': 'Paint Brush Set', 'Quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -14734,11 +14734,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -14765,17 +14765,17 @@
         <v>144000</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>136200</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Coffee Mug', 'Quantity': 20}, {'Name': 'Resistance Bands', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -14785,11 +14785,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -14816,17 +14816,17 @@
         <v>144000</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>136200</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Coffee Mug', 'Quantity': 20}, {'Name': 'Resistance Bands', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -14836,11 +14836,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -14867,17 +14867,17 @@
         <v>144000</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>136200</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 20}, {'Name': 'Screw Assortment Kit', 'Quantity': 19}, {'Name': 'Coffee Mug', 'Quantity': 20}, {'Name': 'Resistance Bands', 'Quantity': 19}]</t>
         </is>
       </c>
     </row>
@@ -14887,11 +14887,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -14918,17 +14918,17 @@
         <v>144000</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>136080</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 23}, {'Name': 'Screw Assortment Kit', 'Quantity': 23}, {'Name': 'Coffee Mug', 'Quantity': 23}, {'Name': 'Resistance Bands', 'Quantity': 7}]</t>
         </is>
       </c>
     </row>
@@ -15703,11 +15703,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -15734,17 +15734,17 @@
         <v>288000</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>271110</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Paint Brush Set', 'Quantity': 12}, {'Name': 'Slow Cooker', 'Quantity': 7}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -15754,11 +15754,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -15785,17 +15785,17 @@
         <v>288000</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>271110</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 12}, {'Name': 'Paint Brush Set', 'Quantity': 12}, {'Name': 'Slow Cooker', 'Quantity': 7}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -15805,11 +15805,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -15836,17 +15836,17 @@
         <v>288000</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>271360</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 9}, {'Name': 'Soccer Ball', 'Quantity': 8}, {'Name': 'Coffee Mug', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 8}]</t>
         </is>
       </c>
     </row>
@@ -15856,11 +15856,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -15887,17 +15887,17 @@
         <v>288000</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>271360</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 9}, {'Name': 'Soccer Ball', 'Quantity': 8}, {'Name': 'Coffee Mug', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 8}]</t>
         </is>
       </c>
     </row>
@@ -15907,11 +15907,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -15938,17 +15938,17 @@
         <v>288000</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>270976</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 1}, {'Name': 'Soccer Ball', 'Quantity': 14}, {'Name': 'Coffee Mug', 'Quantity': 14}, {'Name': 'Mixing Bowl Set', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -15958,11 +15958,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -15989,17 +15989,17 @@
         <v>288000</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>270868</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16009,11 +16009,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -16040,17 +16040,17 @@
         <v>288000</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>270868</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16060,11 +16060,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -16091,17 +16091,17 @@
         <v>288000</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>270868</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16111,11 +16111,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -16142,17 +16142,17 @@
         <v>288000</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>270868</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 17}, {'Name': 'Screw Assortment Kit', 'Quantity': 17}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16162,11 +16162,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -16193,17 +16193,17 @@
         <v>288000</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>272092</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 38}, {'Name': 'Screw Assortment Kit', 'Quantity': 39}, {'Name': 'Soccer Ball', 'Quantity': 4}, {'Name': 'Resistance Bands', 'Quantity': 38}]</t>
         </is>
       </c>
     </row>
@@ -16723,11 +16723,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -16754,17 +16754,17 @@
         <v>432000</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>406725</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -16774,11 +16774,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -16805,17 +16805,17 @@
         <v>432000</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16825,11 +16825,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -16856,17 +16856,17 @@
         <v>432000</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16876,11 +16876,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -16907,17 +16907,17 @@
         <v>432000</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -16927,11 +16927,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -16958,17 +16958,17 @@
         <v>432000</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>408300</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 15}, {'Name': 'Blender', 'Quantity': 15}, {'Name': 'Mixing Bowl Set', 'Quantity': 15}, {'Name': 'Knife Set', 'Quantity': 15}]</t>
         </is>
       </c>
     </row>
@@ -16978,11 +16978,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -17009,17 +17009,17 @@
         <v>432000</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>406725</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -17029,11 +17029,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -17060,17 +17060,17 @@
         <v>432000</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -17080,11 +17080,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -17111,17 +17111,17 @@
         <v>432000</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -17131,11 +17131,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -17162,17 +17162,17 @@
         <v>432000</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -17213,17 +17213,17 @@
         <v>432000</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>407480</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 9}, {'Name': 'Blender', 'Quantity': 8}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -17233,11 +17233,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -17264,17 +17264,17 @@
         <v>432000</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>406725</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 18}, {'Name': 'Yoga Block', 'Quantity': 18}, {'Name': 'Resistance Bands', 'Quantity': 17}, {'Name': 'Meditation Cushion', 'Quantity': 17}]</t>
         </is>
       </c>
     </row>
@@ -17284,11 +17284,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -17315,17 +17315,17 @@
         <v>432000</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>407480</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 9}, {'Name': 'Blender', 'Quantity': 8}, {'Name': 'Slow Cooker', 'Quantity': 8}, {'Name': 'Mixing Bowl Set', 'Quantity': 9}]</t>
         </is>
       </c>
     </row>
@@ -17335,11 +17335,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -17366,17 +17366,17 @@
         <v>432000</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>407154</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 16}, {'Name': 'Soccer Ball', 'Quantity': 15}, {'Name': 'Yoga Mat', 'Quantity': 14}, {'Name': 'Resistance Bands', 'Quantity': 14}]</t>
         </is>
       </c>
     </row>
@@ -17386,11 +17386,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -17417,17 +17417,17 @@
         <v>432000</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>406980</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 16}, {'Name': 'Blender', 'Quantity': 3}, {'Name': 'Slow Cooker', 'Quantity': 10}, {'Name': 'Mixing Bowl Set', 'Quantity': 12}]</t>
         </is>
       </c>
     </row>
@@ -17437,11 +17437,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -17468,17 +17468,17 @@
         <v>432000</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>407728</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Basketball', 'Quantity': 15}, {'Name': 'Soccer Ball', 'Quantity': 16}, {'Name': 'Yoga Mat', 'Quantity': 16}, {'Name': 'Resistance Bands', 'Quantity': 16}]</t>
         </is>
       </c>
     </row>
@@ -17488,11 +17488,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -17519,17 +17519,17 @@
         <v>432000</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>406125</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Yoga Mat', 'Quantity': 20}, {'Name': 'Yoga Block', 'Quantity': 10}, {'Name': 'Resistance Bands', 'Quantity': 59}, {'Name': 'Meditation Cushion', 'Quantity': 15}]</t>
         </is>
       </c>
     </row>
@@ -17539,11 +17539,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -17570,17 +17570,17 @@
         <v>432000</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>406418</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'Name': 'Soccer Ball', 'Quantity': 11}, {'Name': 'Coffee Mug', 'Quantity': 13}, {'Name': 'Slow Cooker', 'Quantity': 9}, {'Name': 'Mixing Bowl Set', 'Quantity': 6}]</t>
         </is>
       </c>
     </row>
